--- a/Data/Listings/Sidra_listings.xlsx
+++ b/Data/Listings/Sidra_listings.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,11 +50,6 @@
         <fgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -69,14 +64,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -636,7 +630,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -745,7 +739,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -855,7 +849,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -957,7 +951,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -1064,7 +1058,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1165,7 +1159,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1279,7 +1273,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1388,7 +1382,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1493,7 +1487,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1588,7 +1582,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1688,7 +1682,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1788,7 +1782,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1887,7 +1881,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1980,7 +1974,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -2070,7 +2064,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -2158,7 +2152,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2275,7 +2269,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2398,7 +2392,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -2500,7 +2494,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2604,7 +2598,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2701,7 +2695,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2800,7 +2794,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2899,7 +2893,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2994,7 +2988,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -3087,7 +3081,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -3184,7 +3178,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -3300,7 +3294,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3413,7 +3407,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3513,7 +3507,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3614,7 +3608,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3715,7 +3709,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3818,7 +3812,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3918,7 +3912,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -4019,7 +4013,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -4121,7 +4115,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -4223,7 +4217,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4324,7 +4318,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -4405,7 +4399,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -4442,7 +4436,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4461,7 +4455,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Golden Wave Properties Proudly Presents this amazing E5, 5-bedroom villa located in the heart of Dubai Hills Estate for Sale&lt;br/&gt;&lt;br/&gt;&lt;ul&gt;&lt;li&gt;Spacious 5 bedroom Villa Type E5 for sale in Sidra&lt;/li&gt;&lt;li&gt;Large Corner Plot 6636 sqft in size&lt;/li&gt;&lt;li&gt;BUA 4109.00 SQ FT&lt;/li&gt;&lt;li&gt;Landscaped garden, Well Maintained&lt;/li&gt;&lt;li&gt;Rented for Dhs 560,000/- in ONE PAYMENT till February 2026 and notice has been served for the tenant to vacate at the time of contract expiry itself&lt;/li&gt;&lt;li&gt;Overlooking a green patch with a great location &lt;/li&gt;&lt;li&gt;Huge Balconies&lt;/li&gt;&lt;li&gt;Generous Gardens&lt;/li&gt;&lt;li&gt;BBQ Area&lt;/li&gt;&lt;li&gt;Park &amp;amp; Kid&amp;#39;s Play Area&lt;/li&gt;&lt;li&gt;On the Park and Play Area&lt;/li&gt;&lt;li&gt;Large Plot &lt;/li&gt;&lt;li&gt;Golf Course Community&lt;/li&gt;&lt;li&gt;Perfect family living for any prospective Owners looking for a convenient location &lt;/li&gt;&lt;li&gt;Mall within walking distance&lt;/li&gt;&lt;li&gt;Well connected with the Shopping Mall, Restaurants, Education System and Sports.&lt;/li&gt;&lt;li&gt;Covered Parking&lt;/li&gt;&lt;/ul&gt;The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. Everything you could need and want in the best of lifestyle living is within the community. This is where convenience meets you at the comfort of your home.&lt;br/&gt;&lt;br/&gt;For more information and viewing call our expert&lt;br/&gt;&lt;br/&gt;Mr. Amar Rupaney &lt;br/&gt;&lt;br/&gt;&lt;br/&gt;or visit www.gwp.ae for further details.</t>
+          <t>Golden Wave Properties Proudly Presents this amazing E5, 5-bedroom villa located in the heart of Dubai Hills Estate for Sale&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Spacious 5 bedroom Villa Type E5 for sale in Sidra&lt;/li&gt;&lt;li&gt;Large Corner Plot 6636 sqft in size&lt;/li&gt;&lt;li&gt;BUA 4109.00 SQ FT&lt;/li&gt;&lt;li&gt;Landscaped garden, Well Maintained&lt;/li&gt;&lt;li&gt;Rented for Dhs 560,000/- in ONE PAYMENT till February 2026 and notice has been served for the tenant to vacate at the time of contract expiry itself&lt;/li&gt;&lt;li&gt;Overlooking a green patch with a great location &lt;/li&gt;&lt;li&gt;Huge Balconies&lt;/li&gt;&lt;li&gt;Generous Gardens&lt;/li&gt;&lt;li&gt;BBQ Area&lt;/li&gt;&lt;li&gt;Park &amp;amp; Kid's Play Area&lt;/li&gt;&lt;li&gt;On the Park and Play Area&lt;/li&gt;&lt;li&gt;Large Plot &lt;/li&gt;&lt;li&gt;Golf Course Community&lt;/li&gt;&lt;li&gt;Perfect family living for any prospective Owners looking for a convenient location &lt;/li&gt;&lt;li&gt;Mall within walking distance&lt;/li&gt;&lt;li&gt;Well connected with the Shopping Mall, Restaurants, Education System and Sports.&lt;/li&gt;&lt;li&gt;Covered Parking&lt;/li&gt;&lt;/ul&gt;The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. Everything you could need and want in the best of lifestyle living is within the community. This is where convenience meets you at the comfort of your home.&lt;br /&gt;&lt;br /&gt;For more information and viewing call our expert&lt;br /&gt;&lt;br /&gt;Mr. Amar Rupaney &lt;br /&gt;&lt;br /&gt;&lt;br /&gt;or visit www.gwp.ae for further details.</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4524,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4618,7 +4612,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4706,7 +4700,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4790,7 +4784,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4878,7 +4872,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4976,7 +4970,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -5086,7 +5080,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -5185,7 +5179,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -5282,7 +5276,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -5384,7 +5378,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -5486,7 +5480,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5589,7 +5583,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5688,7 +5682,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5792,7 +5786,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5893,7 +5887,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5956,7 +5950,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5989,7 +5983,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -6008,7 +6002,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Livrichy Real Estate is delighted to present this elegant villa for sale located in the highly sought-after Sidra 2 community within Dubai Hills Estate.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Property Details:&lt;br/&gt;&lt;br/&gt;- Premium finishing&lt;br/&gt;- Full renovated (inside &amp;amp; out)&lt;br/&gt;- Private pool&lt;br/&gt;- BBQ and dining area, bar&lt;br/&gt;- Fully extended&lt;br/&gt;- Prime location&lt;br/&gt;- Large 4 bedroom &lt;br/&gt;- BUA: 4,640.86 sq ft&lt;br/&gt;&lt;br/&gt;This luxurious villa boasts a stunning infinity-edge pool, paired with a cozy fire pit lounge and a high-end outdoor culinary area - ideal for elegant gatherings and alfresco dining.&lt;br/&gt;&lt;/p&gt;&lt;br&gt;&lt;p&gt;Community Highlights:&lt;br/&gt;&lt;br/&gt;Family-friendly, secure environment&lt;br/&gt;Developed by Emaar in partnership with Meraas&lt;br/&gt;Located within Dubai’s premier golf course community&lt;br/&gt;18-hole championship golf course just minutes away&lt;br/&gt;Dubai Hills Mall nearby for retail, dining, and entertainment&lt;br/&gt;Two world-class hospitals, including King&amp;#39;s College London Hospital&lt;br/&gt;Quick access to top international schools: Brighton College, GEMS, Kings School (approx. 15 minutes)&lt;br/&gt;Seamless connectivity to Al Khail Road and Umm Suqeim Street&lt;/p&gt;&lt;br&gt;</t>
+          <t>&lt;p&gt;Livrichy Real Estate is delighted to present this elegant villa for sale located in the highly sought-after Sidra 2 community within Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Property Details:&lt;br /&gt;&lt;br /&gt;- Premium finishing&lt;br /&gt;- Full renovated (inside &amp;amp; out)&lt;br /&gt;- Private pool&lt;br /&gt;- BBQ and dining area, bar&lt;br /&gt;- Fully extended&lt;br /&gt;- Prime location&lt;br /&gt;- Large 4 bedroom &lt;br /&gt;- BUA: 4,640.86 sq ft&lt;br /&gt;&lt;br /&gt;This luxurious villa boasts a stunning infinity-edge pool, paired with a cozy fire pit lounge and a high-end outdoor culinary area - ideal for elegant gatherings and alfresco dining.&lt;br /&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Community Highlights:&lt;br /&gt;&lt;br /&gt;Family-friendly, secure environment&lt;br /&gt;Developed by Emaar in partnership with Meraas&lt;br /&gt;Located within Dubai’s premier golf course community&lt;br /&gt;18-hole championship golf course just minutes away&lt;br /&gt;Dubai Hills Mall nearby for retail, dining, and entertainment&lt;br /&gt;Two world-class hospitals, including King's College London Hospital&lt;br /&gt;Quick access to top international schools: Brighton College, GEMS, Kings School (approx. 15 minutes)&lt;br /&gt;Seamless connectivity to Al Khail Road and Umm Suqeim Street&lt;/p&gt;&lt;br /&gt;</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6071,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -6161,7 +6155,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -6227,7 +6221,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -6260,7 +6254,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -6361,7 +6355,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -6463,7 +6457,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -6563,7 +6557,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6670,7 +6664,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6770,7 +6764,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6872,7 +6866,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6988,7 +6982,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -7097,7 +7091,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -7200,7 +7194,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -7306,7 +7300,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -7415,7 +7409,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -7514,7 +7508,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -7560,12 +7554,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>RL457</t>
+          <t>SIDRA_III_V_S_MURAD</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14313865.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14537941.html</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7580,7 +7574,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sidra Villas II</t>
+          <t>Sidra Villas III</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7589,10 +7583,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>15850000</v>
+        <v>7500000</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -7603,31 +7597,31 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>6119</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Luxury Furnished | Vibrant Community | Private Pool</t>
+          <t>With Maid Room | Standalone Villa | Exclusive Unit</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Atif S. Jangda</t>
+          <t>Murad Raief Jened</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>WOW PROPERTIES</t>
+          <t>Real Estate Masters</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -7636,102 +7630,6 @@
         </is>
       </c>
       <c r="T71" t="inlineStr">
-        <is>
-          <t>WOW Properties is proud to present this luxury villa in Sidra Villas II, Dubai Hills Estates
-Property Details:
-- 5 Bedrooms Villa
-- BUA : 6,119.61sqft
-- Fully Furnished
-- Private Pool
-- Vacant on Transfer
-- Outdoor Pergola
-This villa is nestled in a prime, private location just moments from Dubai Hills Mall. Set on a generous plot, it offers exceptional space and overlooks the serene green belt. The garden features a charming pergola, and the property presents a fantastic renovation opportunity to create your dream home.
-Sidra is Dubai’s most vibrant and premium new community. Dubai Hills is strategically positioned on Al Khail Road and southeast of Downtown Dubai. The destination has an endless supply of nature trails and green spaces so you can live life in harmony with nature and world-class residential, hospitality and retail districts. The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master-planned to connect you with some of the best choices in education, shopping, healthcare and sports.
-Dubai Hills Estate is a fully integrated community with luscious landscaped greens and pristine fairways with an iconic backdrop of the Burj Khalifa and the Dubai skyline.
-WOW Properties is a full service luxury real estate brokerage serving the Dubai market since 2019. Our team provides comprehensive services for buying, selling, leasing, and private development opportunities. We specialize in advisory services to help empower and educate our clients so they can make informed decisions and reach their real estate goals.
-For more information, please do not hesitate to contact us</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>SIDRA_III_V_S_MURAD</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14537941.html</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>4420</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>With Maid Room | Standalone Villa | Exclusive Unit</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
-      <c r="P72" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Murad Raief Jened</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Real Estate Masters</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
         <is>
           <t xml:space="preserve">R E M Real Estate Brokers are pleased to bring to you:
 Sidra 3 – Dubai Hills Estate - Standalone Villa for Sale
@@ -7761,85 +7659,85 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>SNNY-Sidra4BR</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14198886.html</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="G72" t="n">
         <v>10200000</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H72" t="n">
         <v>4</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
         <is>
           <t>Vacant / No Upgrades / Single Row / Furnished / E3</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="P73" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q73" t="inlineStr">
+      <c r="P72" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>Sunny Adhiya</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>Dynasty Real Estate - Head Office</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t xml:space="preserve">II No Agents II
 II 1 Day Prior Notice required II
@@ -7870,85 +7768,85 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>SNNY-Sidra5Bed</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14200661.html</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G74" t="n">
+      <c r="G73" t="n">
         <v>14500000</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H73" t="n">
         <v>5</v>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
         <is>
           <t>Vacant Soon / Single Row / E5 / No Upgrades / 5BR</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="P74" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q74" t="inlineStr">
+      <c r="P73" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q73" t="inlineStr">
         <is>
           <t>Sunny Adhiya</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>Dynasty Real Estate - Head Office</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>II No Agents II
 II 1 Day Prior Notice required II
@@ -7978,6 +7876,115 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>SP-S-5867</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14468995.html</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Sidra Villas III</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>11999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Furnished | Near to Park | Single Row | Type E3</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Ali Zafar</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Springfield Real Estate</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Spring Field Real Estate offers you Fully Furnished 4 Bedroom Villa for sale located in Sidra Villas 3.
+Property Features:
+	•	4 Bedrooms + Maids Room
+	•	4 Bathrooms
+	•	Type E3 Layout
+	•	Plot Size: 4,901.67 sq.ft
+	•	Modern open-plan kitchen
+	•	Floor-to-ceiling windows for natural light
+	•	Landscaped garden
+	•	Covered parking for 2 cars
+Community Highlights:
+	•	Gated community with 24/7 security
+	•	Walking distance to Dubai Hills Park
+	•	Minutes from Dubai Hills Mall
+	•	Access to top-rated schools and healthcare facilities
+	•	Community pool, gym, and kids’ play areas
+About the Community:
+Experience luxury living in the heart of Dubai Hills Estate with this beautifully maintained 4-bedroom Sidra Villa in the highly sought-after Sidra 3 community. Offering a perfect blend of modern architecture and family-friendly design, this home is ideal for those who value space, comfort, and location. This villa is perfect for families looking for a serene yet connected lifestyle, with easy access to Al Khail Road and Downtown Dubai.
+Springfield Real Estate provides a diverse range of properties for both sale and rent from Apartments, Villas, Townhouses and Plots.
+For more information, you may contact our specialist ( Ali Zafar) for more information.
+SPRING FIELD REAL ESTATE
+RERA ORN: 11929</t>
+        </is>
+      </c>
+    </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
@@ -8043,7 +8050,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -8131,7 +8138,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -8226,7 +8233,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -8340,7 +8347,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -8448,7 +8455,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -8564,7 +8571,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -8677,7 +8684,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -8778,7 +8785,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -8877,7 +8884,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8964,7 +8971,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -9062,7 +9069,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -9164,7 +9171,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -9264,7 +9271,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -9365,7 +9372,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -9464,7 +9471,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -9561,7 +9568,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -9628,7 +9635,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>10500000</v>
+        <v>9500000</v>
       </c>
       <c r="H91" t="n">
         <v>4</v>
@@ -9657,7 +9664,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -9756,7 +9763,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -9854,7 +9861,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -9948,7 +9955,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -10046,7 +10053,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -10146,7 +10153,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -10247,7 +10254,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -10344,7 +10351,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -10442,7 +10449,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -10549,7 +10556,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -10645,7 +10652,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -10757,7 +10764,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -10854,7 +10861,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -10947,7 +10954,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -11058,7 +11065,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -11166,7 +11173,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -11278,7 +11285,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -11381,7 +11388,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -11503,7 +11510,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -11615,7 +11622,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -11734,7 +11741,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -11832,7 +11839,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -11881,12 +11888,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>SP-S-5867</t>
+          <t>LXF-S-71675</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14468995.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13798922.html</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -11910,7 +11917,7 @@
         </is>
       </c>
       <c r="G113" s="4" t="n">
-        <v>11999999</v>
+        <v>15500000</v>
       </c>
       <c r="H113" s="4" t="n">
         <v>4</v>
@@ -11924,35 +11931,31 @@
       <c r="K113" s="4" t="inlineStr"/>
       <c r="L113" s="5" t="inlineStr">
         <is>
-          <t>4901</t>
-        </is>
-      </c>
-      <c r="M113" s="6" t="inlineStr">
-        <is>
-          <t>4901</t>
-        </is>
-      </c>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="M113" s="4" t="inlineStr"/>
       <c r="N113" s="4" t="inlineStr">
         <is>
-          <t>Furnished | Near to Park | Single Row | Type E3</t>
+          <t>Fully Upgraded | Extended | Swimming Pool | Vacant</t>
         </is>
       </c>
       <c r="O113" s="4" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="P113" s="4" t="n">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="Q113" s="4" t="inlineStr">
         <is>
-          <t>Ali Zafar</t>
+          <t>Harrison Fry</t>
         </is>
       </c>
       <c r="R113" s="4" t="inlineStr">
         <is>
-          <t>Springfield Real Estate</t>
+          <t>Luxfolio Real Estate Brokers LLC</t>
         </is>
       </c>
       <c r="S113" s="4" t="inlineStr">
@@ -11962,28 +11965,12 @@
       </c>
       <c r="T113" s="4" t="inlineStr">
         <is>
-          <t>Spring Field Real Estate offers you Fully Furnished 4 Bedroom Villa for sale located in Sidra Villas 3.
-Property Features:
-	•	4 Bedrooms + Maids Room
-	•	4 Bathrooms
-	•	Type E3 Layout
-	•	Plot Size: 4,901.67 sq.ft
-	•	Modern open-plan kitchen
-	•	Floor-to-ceiling windows for natural light
-	•	Landscaped garden
-	•	Covered parking for 2 cars
-Community Highlights:
-	•	Gated community with 24/7 security
-	•	Walking distance to Dubai Hills Park
-	•	Minutes from Dubai Hills Mall
-	•	Access to top-rated schools and healthcare facilities
-	•	Community pool, gym, and kids’ play areas
-About the Community:
-Experience luxury living in the heart of Dubai Hills Estate with this beautifully maintained 4-bedroom Sidra Villa in the highly sought-after Sidra 3 community. Offering a perfect blend of modern architecture and family-friendly design, this home is ideal for those who value space, comfort, and location. This villa is perfect for families looking for a serene yet connected lifestyle, with easy access to Al Khail Road and Downtown Dubai.
-Springfield Real Estate provides a diverse range of properties for both sale and rent from Apartments, Villas, Townhouses and Plots.
-For more information, you may contact our specialist ( Ali Zafar) for more information.
-SPRING FIELD REAL ESTATE
-RERA ORN: 11929</t>
+          <t>Luxfolio are proud to sell this beautiful, fully upgraded and extended 4 bedroom villa in Sidra, Dubai Hills.
+Discover unparalleled luxury in this fully upgraded and extended 4-bedroom villa located in the prestigious Sidra community of Dubai Hills. 
+This exceptional home offers a perfect blend of modern elegance and comfort, featuring a spacious open-plan layout with high-end finishes throughout. The state-of-the-art kitchen is a chef&amp;#39;s dream, equipped with premium appliances and custom cabinetry.
+ The expansive living and dining areas are ideal for entertaining, with large windows providing abundant natural light and stunning views of the landscaped garden. Each of the four bedrooms is generously sized, with the master suite offering a private retreat complete with a luxurious en-suite bathroom and walk-in closet. 
+The villa has been thoughtfully extended to include additional living space, perfect for a home office or family room. Outside, the beautifully landscaped garden offers a serene oasis, ideal for outdoor gatherings or relaxation. 
+Residents of Sidra enjoy access to world-class amenities, including a community pool, fitness center, and parks. Situated in the heart of Dubai Hills, this villa offers convenient access to top schools, shopping centers, and major roadways. Experience the ultimate in luxury living in this stunning Sidra villa</t>
         </is>
       </c>
     </row>

--- a/Data/Listings/Sidra_listings.xlsx
+++ b/Data/Listings/Sidra_listings.xlsx
@@ -47,7 +47,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
+        <fgColor rgb="00ADD8E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1524,12 +1524,12 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CP-S-01055</t>
+          <t>DBI211238</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14341178.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14219489.html</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sidra Villas I</t>
+          <t>Sidra Villas III</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>13999999</v>
+        <v>8500000</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1567,31 +1567,35 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5988</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>4596</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Corner Unit | Type E4 | Near Pool and Park</t>
+          <t>Notice served | Keys In Hand | Corner plot</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Hema Chhablani</t>
+          <t>Oliver Hansen</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Classic Paramount Real Estate</t>
+          <t>haus &amp; haus</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1600,106 +1604,6 @@
         </is>
       </c>
       <c r="T11" t="inlineStr">
-        <is>
-          <t>Classic Paramount Real Estate Real Estate presents this priced to sell 5-bedroom villa with a maids room in the charming community of Sidra, Dubai Hills.
-Property Features:
-- 5 Bedrooms + Maids Room
-- Green Belt
-- Corner Plot
-- Landscaped 
--  Type E4
-- Close to Amenities
-- Motivated Seller
-This property presents an excellent opportunity for End Users. Positioned as a corner unit on the green belt, it boasts a fantastic location. Sidra is Dubai’s most vibrant and premium new community. Dubai Hills is strategically positioned on Al Khail Road and southeast of Downtown Dubai. 
-Reference pictures are used in the listing, please contact our Property Expert, Hema Chhablani for further information and updated pictures
-About Us:
-CLASSIC PARAMOUNT REAL ESTATE (CPRE) is a full-service brokerage company, driven by a team of industry experts, dedicated to delivering a truly personalized real estate experience. Specializing in both residential and commercial properties, we provide comprehensive services for buying, selling, leasing, investing, managing, or relocating. At CPRE, we take immense pride in building lasting relationships with our clients, working tirelessly on their behalf to secure the perfect deal every time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>DBI211238</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14219489.html</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>3125</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>4596</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Notice served | Keys In Hand | Corner plot</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Oliver Hansen</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>haus &amp; haus</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
         <is>
           <t>- Notice served
 - Corner plot
@@ -1717,89 +1621,89 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DBI219973</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14283429.html</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G12" t="n">
         <v>9500000</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>4570</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>4570</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Upgraded I Extended I Private Pool I VOT</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="P12" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Jamie Hemingway</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>- Fully Upgraded
 - Extended close to Emaar 10%
@@ -1816,89 +1720,89 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>DHE-SIDRA1-5BR</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14012012.html</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G13" t="n">
         <v>15000000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>6746</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Big Plot on Park| type E5| Vacant soon| 5 Bedrooms</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="P13" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Imran Khan</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Premium Hub Real Estate</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>5 Bedrooms + Maid Room 
 Big Plot on Park
@@ -1913,85 +1817,85 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>DHE-Sidra3-4BR-FS</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14468042.html</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G14" t="n">
         <v>10000000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t>4773</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
         <is>
           <t>4 Bedrooms Villa | type E3 | Tenanted</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="P14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Imran Khan</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Premium Hub Real Estate</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>4 Bedrooms + maid room
 type E3 
@@ -2003,15 +1907,99 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DHP-S-3035</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13114159.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sidra Villas III</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>E3 | Corner Plot | Single Row | Family Community</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Ammir Asaad</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Direct Properties</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Direct Properties is delighted to offer this amazing opportunity to purchase a luxurious 4 Bedroom villa in the heart of the much sought after Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;This stunning corner, E3 type property boasts a large living space, fitted kitchen and maids room as well as 4 great sized bedrooms with built in wardrobes, immaculate bathrooms and lots of space.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;A large outdoor area affords all the privacy you would ever need with plenty of scope to add in the desired landscaping you want.&lt;br /&gt;&lt;br /&gt;Unit is vacant and ready for immediate possession.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Unique Features&lt;/p&gt;&lt;br /&gt;&lt;ul&gt;&lt;li&gt; Large corner plot&lt;/li&gt;&lt;li&gt; Desirable location&lt;/li&gt;&lt;li&gt; Great community facilities&lt;/li&gt;&lt;li&gt; Close to mall&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; Direct Properties achievements are the result of 5* Reviews.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Years of dedication &amp;amp; committed people gathered together, it has grown due to Customer re-satisfaction and word of mouth.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Our team aims to stay ahead of the latest market trends &amp;amp; to anticipate the needs of our clients.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;We know that customer satisfaction is the best marketing strategy and our goal is to grow our brand based on loyalty.&lt;/p&gt;&lt;br /&gt;</t>
+        </is>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DHP-S-3035</t>
+          <t>DP-S-51051</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13114159.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14438354.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2026,7 +2014,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sidra Villas III</t>
+          <t>Sidra Villas I</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2035,7 +2023,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>12000000</v>
+        <v>11750000</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -2049,31 +2037,35 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3593</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4740</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>E3 | Corner Plot | Single Row | Family Community</t>
+          <t>Fully Renovated and Remodeled | Private Pool</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Ammir Asaad</t>
+          <t>Simon Beazley</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Direct Properties</t>
+          <t>Driven Properties</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2082,94 +2074,6 @@
         </is>
       </c>
       <c r="T16" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Direct Properties is delighted to offer this amazing opportunity to purchase a luxurious 4 Bedroom villa in the heart of the much sought after Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;This stunning corner, E3 type property boasts a large living space, fitted kitchen and maids room as well as 4 great sized bedrooms with built in wardrobes, immaculate bathrooms and lots of space.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;A large outdoor area affords all the privacy you would ever need with plenty of scope to add in the desired landscaping you want.&lt;br /&gt;&lt;br /&gt;Unit is vacant and ready for immediate possession.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Unique Features&lt;/p&gt;&lt;br /&gt;&lt;ul&gt;&lt;li&gt; Large corner plot&lt;/li&gt;&lt;li&gt; Desirable location&lt;/li&gt;&lt;li&gt; Great community facilities&lt;/li&gt;&lt;li&gt; Close to mall&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; Direct Properties achievements are the result of 5* Reviews.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Years of dedication &amp;amp; committed people gathered together, it has grown due to Customer re-satisfaction and word of mouth.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Our team aims to stay ahead of the latest market trends &amp;amp; to anticipate the needs of our clients.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;We know that customer satisfaction is the best marketing strategy and our goal is to grow our brand based on loyalty.&lt;/p&gt;&lt;br /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>DP-S-51051</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14438354.html</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Sidra Villas I</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>11750000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>4740</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Fully Renovated and Remodeled | Private Pool</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Simon Beazley</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Driven Properties</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
         <is>
           <t>Brought to you by Driven Properties, this Fully Upgraded Designer 4 Bedroom Villa is located in Sidra Villas I, Dubai Hills Estate.
 Step into luxury with this one-of-a-kind, fully upgraded villa in the prestigious Dubai Hills Estate. Sitting on a generous 4740 sqft plot. This home is the definition of indoor-outdoor living, with custom enhancements that blend contemporary style and practical comfort.
@@ -2208,85 +2112,85 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>DPF-S-37960</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14073718.html</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G17" t="n">
         <v>15000000</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H17" t="n">
         <v>5</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
         <is>
           <t>6029</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
         <is>
           <t>Type E5 Standard | Genuine Seller | Vacant</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2025-04-23</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>68</v>
-      </c>
-      <c r="Q18" t="inlineStr">
+      <c r="P17" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Hitesh Bhaktani</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Driven Properties</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Brought to you by Driven Properties, this 5 Bedroom Villa is located in Sidra Villas II, Dubai Hills Estate.
 Unit Details:
@@ -2327,89 +2231,89 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>DRE-S-15238</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14425783.html</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G18" t="n">
         <v>15000000</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t>6751</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>6751</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Well Maintained | Spacious Layout I Maid Room</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2025-06-03</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="inlineStr">
+      <c r="P18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Ameena Azeez Sait</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Drehomes Real Estate</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>DRE Homes presents to you this stunning 5-Bedroom Villa in Sidra 1, Dubai Hills Estate.
 KEY FEATURES
@@ -2433,85 +2337,85 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>DUB221645</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-13974701.html</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G19" t="n">
         <v>9200000</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H19" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>3102</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Exclusive | Rare Park Backing | Vacant now</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="P19" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Jamie Hemingway</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>- Exclusive listing
 - Park Backing
@@ -2533,89 +2437,89 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>DUH230230</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14125825.html</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G20" t="n">
         <v>12000000</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>6331</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Single Row | Vacant | Large Corner Plot</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="P21" t="n">
-        <v>63</v>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="P20" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Luke Newman</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>- Single Row
 - Large Corner Plot
@@ -2630,89 +2534,89 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>DUH230381</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14260860.html</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G21" t="n">
         <v>12700000</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H21" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>4036</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>5600</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Plot 5,600 sq.ft | Extended | Exclusive villa</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2025-05-14</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q22" t="inlineStr">
+      <c r="P21" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Oliver Hansen</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>- Large corner plot
 - 5,600 sq.ft plot
@@ -2733,85 +2637,85 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>DUH241728</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14519147.html</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G22" t="n">
         <v>14600000</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H22" t="n">
         <v>5</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
         <is>
           <t>Corner Plot | Pool Backing | Extended</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2025-06-17</t>
         </is>
       </c>
-      <c r="P23" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q23" t="inlineStr">
+      <c r="P22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Luke Newman</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>- Corner Plot
 - 5 Bedrooms
@@ -2828,89 +2732,89 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>DUH242288</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13689527.html</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G23" t="n">
         <v>9800000</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H23" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>4355</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>Unique Corner Plot | Extended | Vacant on Transfer</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>118</v>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="P23" t="n">
+        <v>119</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Luke Newman</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>- BUA Extended By More Than 10%
 - Large Corner Plot
@@ -2927,85 +2831,85 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>DUH242340</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14240513.html</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G24" t="n">
         <v>10700000</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Upgraded | Vacant On Transfer | Spacious</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q25" t="inlineStr">
+      <c r="P24" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Luke Newman</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>- Upgraded Flooring
 - Upgraded Kitchen
@@ -3020,85 +2924,85 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>DUH250413</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14412923.html</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G25" t="n">
         <v>15000000</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Premium Upgrades | Fully Extended | Infinity Pool</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q26" t="inlineStr">
+      <c r="P25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Carla Mitchell</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>haus &amp; haus</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>- Fully Renovated to a modern finish
 - Full remodel of villa inside &amp;amp; out
@@ -3117,85 +3021,85 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>EPS-S-1015</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14209535.html</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G26" t="n">
         <v>10850000</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H26" t="n">
         <v>4</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
         <is>
           <t>EXTENDED | SINGLE ROW | CLOSE TO ENTRANCE</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2025-05-08</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>53</v>
-      </c>
-      <c r="Q27" t="inlineStr">
+      <c r="P26" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Evelyn Oprea</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Elite Property Brokerage</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>Elite Property Brokerage is delighted to offer for sale this one of a kind 4-bedroom villa located at Sidra 2 in Dubai Hills Estate.
 Reference number: EPS-S-1015
@@ -3229,89 +3133,89 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>EPS-S-1749</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14384820.html</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G27" t="n">
         <v>14049000</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H27" t="n">
         <v>5</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>4400</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>6795</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Extended Living | Big Corner Plot | Close to Mall!</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q28" t="inlineStr">
+      <c r="P27" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Jake Jones</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Elite Property Brokerage</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>Elite Property Brokerage is delighted to offer for sale this 5-bedroom villa located at Sidra II in Dubai Hills Estate close to the mall.
 Reference number: EPS-S-1749
@@ -3342,89 +3246,89 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>ES-1007135</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14199241.html</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G28" t="n">
         <v>8800000</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>4467</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Single Row l Extended and Upgraded lVastu</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="P29" t="n">
-        <v>54</v>
-      </c>
-      <c r="Q29" t="inlineStr">
+      <c r="P28" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Keisha Brass</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>Espace Real Estate is very excited to bring to the market this beautifully upgraded and extended, originally Sidra E1 villa. This villa now has 3 bedrooms plus a study. The villa is located within Sidra in the very popular Dubai Hills Estate. The villa has gone under renovations and looks amazing, the main difference you will see is the additional space, there is an extra living area gained downstairs along with an extended dining area, giving a spacious feel. Then upstairs you have an additional family/study area, this could easily be made into a 4th bedroom as well. The master bedroom has been extended over the balcony, so it feels very large.
 - Type E1
@@ -3442,89 +3346,89 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>ES-1007198</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14249160.html</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G29" t="n">
         <v>10750000</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H29" t="n">
         <v>4</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>4657</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>Upgraded E3 | Amazing Location | VOT</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2025-05-13</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q30" t="inlineStr">
+      <c r="P29" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Simon Spencer</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>Espace Real Estate is pleased to present this upgraded 4-bedroom Sidra villa to the market, located within a very nice location with a short walk to the park and pool. This E3 layout villa consists of 4 bedrooms plus maids, along with a family room on the landing. Downstairs you have a good-sized guest bedroom, a spacious open plan living and dining area, a modern kitchen, lots of storage space, along with a powder room and maids room. Upstairs, you have 3 further bedrooms along with a very useful family room on the landing, the master bedroom boasting a large en suite bedroom with a balcony area that can easily be extended. This would make a great family home.
 -Type E3	
@@ -3543,89 +3447,89 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>ES-1007278</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14319532.html</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G30" t="n">
         <v>9000000</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H30" t="n">
         <v>4</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
         <is>
           <t>3271</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Tenanted | Back to Back | Type E2</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2025-05-21</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="P30" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Rayan Dool</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Welcome to this stunning villa at the esteemed Dubai Hills Estate, specifically in the illustrious Sidra 1 community. This real estate marvel, exclusively listed by Espace Real Estate, boasts a plot size of 4500 square feet and a built-up area of 3271 square feet. It&amp;#39;s an idyllic home with the perfect blend of luxury, comfort, and style. In this four-bedroom villa, each room is a testament to modern architecture, designed to elevate your living experience. The villa also comes with a dedicated maid&amp;#39;s room, ensuring that every aspect of your convenience and functionality has been considered during its construction. The design Type E2 exemplifies a well-appointed living space that facilitates a high quality of life.  Another significant feature of this Type E2 villa is its tenancy. For an investor looking for an attractive addition to their portfolio, this is an offering that can&amp;#39;t be overlooked. Tenanted villas combine the dual advantage of immediate rental income while also reaping the long-term benefits of property appreciation. 
 -Type E2
@@ -3644,89 +3548,89 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>ES-1007378</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14415987.html</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="G31" t="n">
+        <v>16800000</v>
+      </c>
+      <c r="H31" t="n">
         <v>5</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
         <is>
           <t>4560</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>6177</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>View Today | Upgraded | Extended | VOT</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="P31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Hugo Searle</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>Espace Real Estate is delighted to bring to market this stunning Type E5 5-bedroom villa located in the prestigious Sidra Community of Dubai Hills. This exceptional property has been thoughtfully extended to its maximum capacity. The exterior has been meticulously crafted with extensive planting and landscaping, enhancing the villa&amp;#39;s curb appeal and creating a tranquil outdoor environment. Relax in the beautifully landscaped garden. A highlight of the outdoor space is the stunning swimming pool, complete with a sunken seating area that invites you to unwind in style. This luxurious feature is perfect for enjoying Dubai&amp;#39;s beautiful weather while providing the ultimate space to relax and entertain. Step inside to discover a beautifully renovated interior that blends modern elegance with functional living. Each room is designed to maximize natural light, creating an inviting atmosphere throughout the home. 
 -Type E5
@@ -3747,89 +3651,89 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>ES-1007404</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14437644.html</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G32" t="n">
         <v>12500000</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H32" t="n">
         <v>3</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
         <is>
           <t>3250</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>4435</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>Exclusive | Renovated | Extended | E1</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2025-06-04</t>
         </is>
       </c>
-      <c r="P33" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q33" t="inlineStr">
+      <c r="P32" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Hugo Searle</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>Espace Real Estate is delighted to exclusively bring to market a Type E1 Villa. This fully renovated and extended Villa represents a harmonious blend of contemporary design and timeless elegance. As you approach the villa, you will be captivated by the meticulous landscaping and extensive planting that has taken place. The highlight of the outside space is a stunning swimming pool, which boasts a sleek modern design, accompanied by a serene central water feature and exquisite lighting throughout perfect for relaxing or entertaining. The pool area is also complemented by a barbecue station and shaded covering. Step inside this spacious Villa and you will be greeted with an abundance of natural light reaching all corners of this open-concept layout. An extended dining area and remodeled kitchen island with modern appliances allow the perfect space for hosting guests. The E1 layout comprises 3 bedrooms upstairs and a maid&amp;#39;s room on the ground floor. Both Guest rooms boast plenty of space whilst sharing a bathroom. The Master Bedroom has been vastly extended with a huge full-width floor-to-ceiling window to look over the gardens.
 -EXCLUSIVE
@@ -3847,89 +3751,89 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>ES-1007530</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14576061.html</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G33" t="n">
         <v>10495000</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H33" t="n">
         <v>3</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t>3350</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>4805</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>OPEN HOUSE SUNDAY | EXTENDED | UPGRADED</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Price Reduced | Extended | Renovated</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="P33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Hugo Searle</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>Espace Real Estate is delighted to bring to market this stunning Type E1 3-bedroom villa located in the prestigious Sidra Community of Dubai Hills. This exceptional property has been fully extended to its maximum capacity, past the EMAAR limit of 10%, whilst having all NOC&amp;#39;s in place.  Step inside to discover a beautifully renovated interior that blends modern elegance with functional living. Downstairs, the regular courtyard area has been brought inside and currently serves as a playroom with a hidden door for subtlety. The kitchen has been completely remodeled and transferred to the right-hand side of the downstairs living area, fitted out with Miele appliances. This remodel makes space for an expansive feature bar area and island for further entertainment. Making your way upstairs, you will find two guest bedrooms with a shared bathroom, new flooring throughout. The Master Ensuite has again been extended, maximising every space in the Villa. Also on this floor is a further extension with sky light to be used as a Study or Recreational space. The exterior has been landscaped throughout with a sunken seating area that invites you to unwind in style, whether it be entertaining guests or relaxing. You will also find a semi-permanent Swimming Pool with chiller settings, perfect for the Dubai Heat.
 -Type E1
@@ -3948,89 +3852,89 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>ES-1007534</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14582006.html</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G34" t="n">
         <v>10900000</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H34" t="n">
         <v>4</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>5011</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>Exclusive|Large Corner Plot|Close to Park</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q35" t="inlineStr">
+      <c r="P34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Peter van Gulick</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>Espace Real Estate is delighted to present this well-located 4-bed plus maids in the heart of Dubai Hills Estate. Sidra 3 is one of the most demanded locations in Dubai at the moment for the reason of its great location, great amenities, and family-friendly community. With the Dubai Hills park at walking distance and the Dubai Hills Mall close by this is the perfect location to invest at the moment. The type E3 consists of 4 bedrooms of which one is located on the ground floor. This villa stands out for its stunning location close to the park and community pool and is a corner unit that provides you with a good amount of privacy.
 -Type E3
@@ -4050,89 +3954,89 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>ES-30137</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14222470.html</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G35" t="n">
         <v>9800000</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H35" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t>3600</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>Largest E1 | Fully Extended | Single Row</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q36" t="inlineStr">
+      <c r="P35" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Marco Marinelli</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>Experience the luxury of a spacious E1-type villa located in the serene neighborhood of Dubai Hills Estate, Sidra 3. This exquisite property, styled with tasteful elegance, comes complete with three bedrooms, accompanied by a maid&amp;#39;s room. An added utility room doubles as a study area, providing you with the much-needed functionality and convenience in a modern-day home. The built-up area stretches up to an impressive area of 3,600 sqft from the standard 3,100 sqft BUA, with the overall plot blessed with spanning 4,500 sqft.
 Among the unique selling points of this villa is the proficient use of solar panels on the roof. Not only does this make the home more eco-friendly, but it also aids in significantly reducing the monthly utility bills, making this an investment that will continue to pay off in years to come. Espace Real Estate brings to you this distinctive property, which scores high not only on comfort but also on sustainability. With its strategic location in Dubai Hills Estate and a myriad of upscale amenities, you have the perfect recipe for a dream home. To arrange a viewing, please contact us with the details provided. 
@@ -4152,89 +4056,89 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>ES-32493</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14455108.html</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G36" t="n">
         <v>11750000</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H36" t="n">
         <v>4</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
         <is>
           <t>3500</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>4740</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>Turnkey | Extended | Bright and Modern</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q37" t="inlineStr">
+      <c r="P36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>Ivan Swart</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Espace Real Estate</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>Espace Real Estate is delighted to bring to market this immaculate villa in the highly sought-after Sidra I Community, nestled in the prestigious Dubai Hills Estate. Discover refined living in this meticulously upgraded and extended 4-bedroom + maid villa. Boasting approximately 3,500 sqft of built-up area, this home seamlessly blends luxury, comfort, and outdoor elegance. The villa has a fully landscaped garden with an exotic Balinese-inspired pool, sun deck, and tranquil water feature. Temperature-controlled pool (heater/chiller) for year-round use.Sleek new aluminium pergolas for shaded relaxation. An outdoor culinary zone with integrated BBQ and kitchen. A designer kitchen with an island and premium Smeg appliances. A rear extension for increased living space. An elegant swing door opens to the alfresco dining and BBQ space. Bespoke gin bar and wine display built in for entertaining. Customized TV wall unit in expansive lounge. A floating staircase with glass railings and a serene under-stair garden.Generous master suite with extended layout, walk-in closet, and luxurious en-suite. Three additional spacious bedrooms with en-suites &amp;amp; fitted wardrobes and a dedicated laundry room, and a maid&amp;#39;s quarters. A rare opportunity to own a turnkey, show-home quality villa in one of Dubai&amp;#39;s most sought-after communities.
 -Type E2	
@@ -4253,89 +4157,89 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>FC-S-SYRA-8180</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14378550.html</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G37" t="n">
         <v>15500000</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H37" t="n">
         <v>5</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>6090</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>6090</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>EXCLUSIVE | CORNER VILLA | VACANT ON TRANSFER</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="P38" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q38" t="inlineStr">
+      <c r="P37" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Sayyora Allabergenova</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>F &amp; C Properties LLC</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>Brought to you by F and C Properties. This amazing, luxurious and wonderful 5 Bedroom Villa is located in Dubai Hills Estate - Sidra I, Sidra Villas.
 Nestled within the serene community of Sidra I, this luxurious 5-bedroom villa epitomizes modern elegance and comfort. Boasting a seamless blend of contemporary design and traditional charm, this residence offers a haven of tranquility amidst the bustling city life.
@@ -4371,15 +4275,103 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GW-S-4970</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13366607.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sidra Villas III</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>13999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>6636</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Exclusive|Corner Plot|Notice Served|Close to Park</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>159</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Amar Rupaney</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Golden Wave Properties</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Golden Wave Properties Proudly Presents this amazing E5, 5-bedroom villa located in the heart of Dubai Hills Estate for Sale&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Spacious 5 bedroom Villa Type E5 for sale in Sidra&lt;/li&gt;&lt;li&gt;Large Corner Plot 6636 sqft in size&lt;/li&gt;&lt;li&gt;BUA 4109.00 SQ FT&lt;/li&gt;&lt;li&gt;Landscaped garden, Well Maintained&lt;/li&gt;&lt;li&gt;Rented for Dhs 560,000/- in ONE PAYMENT till February 2026 and notice has been served for the tenant to vacate at the time of contract expiry itself&lt;/li&gt;&lt;li&gt;Overlooking a green patch with a great location &lt;/li&gt;&lt;li&gt;Huge Balconies&lt;/li&gt;&lt;li&gt;Generous Gardens&lt;/li&gt;&lt;li&gt;BBQ Area&lt;/li&gt;&lt;li&gt;Park &amp;amp; Kid's Play Area&lt;/li&gt;&lt;li&gt;On the Park and Play Area&lt;/li&gt;&lt;li&gt;Large Plot &lt;/li&gt;&lt;li&gt;Golf Course Community&lt;/li&gt;&lt;li&gt;Perfect family living for any prospective Owners looking for a convenient location &lt;/li&gt;&lt;li&gt;Mall within walking distance&lt;/li&gt;&lt;li&gt;Well connected with the Shopping Mall, Restaurants, Education System and Sports.&lt;/li&gt;&lt;li&gt;Covered Parking&lt;/li&gt;&lt;/ul&gt;The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. Everything you could need and want in the best of lifestyle living is within the community. This is where convenience meets you at the comfort of your home.&lt;br /&gt;&lt;br /&gt;For more information and viewing call our expert&lt;br /&gt;&lt;br /&gt;Mr. Amar Rupaney &lt;br /&gt;&lt;br /&gt;&lt;br /&gt;or visit www.gwp.ae for further details.</t>
+        </is>
+      </c>
+    </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>GW-S-4970</t>
+          <t>HI-S-006524</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13366607.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13964256.html</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4394,7 +4386,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sidra Villas III</t>
+          <t>Sidra Villas I</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4403,10 +4395,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>13999999</v>
+        <v>10000000</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -4417,35 +4409,35 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>6636</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Exclusive|Corner Plot|Notice Served|Close to Park</t>
+          <t>4-Bedroom, Type E3 | Single Row | Vacant</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Amar Rupaney</t>
+          <t>Fariha Zahid</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Golden Wave Properties</t>
+          <t>Hamptons International - T1</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4455,19 +4447,19 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Golden Wave Properties Proudly Presents this amazing E5, 5-bedroom villa located in the heart of Dubai Hills Estate for Sale&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Spacious 5 bedroom Villa Type E5 for sale in Sidra&lt;/li&gt;&lt;li&gt;Large Corner Plot 6636 sqft in size&lt;/li&gt;&lt;li&gt;BUA 4109.00 SQ FT&lt;/li&gt;&lt;li&gt;Landscaped garden, Well Maintained&lt;/li&gt;&lt;li&gt;Rented for Dhs 560,000/- in ONE PAYMENT till February 2026 and notice has been served for the tenant to vacate at the time of contract expiry itself&lt;/li&gt;&lt;li&gt;Overlooking a green patch with a great location &lt;/li&gt;&lt;li&gt;Huge Balconies&lt;/li&gt;&lt;li&gt;Generous Gardens&lt;/li&gt;&lt;li&gt;BBQ Area&lt;/li&gt;&lt;li&gt;Park &amp;amp; Kid's Play Area&lt;/li&gt;&lt;li&gt;On the Park and Play Area&lt;/li&gt;&lt;li&gt;Large Plot &lt;/li&gt;&lt;li&gt;Golf Course Community&lt;/li&gt;&lt;li&gt;Perfect family living for any prospective Owners looking for a convenient location &lt;/li&gt;&lt;li&gt;Mall within walking distance&lt;/li&gt;&lt;li&gt;Well connected with the Shopping Mall, Restaurants, Education System and Sports.&lt;/li&gt;&lt;li&gt;Covered Parking&lt;/li&gt;&lt;/ul&gt;The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. Everything you could need and want in the best of lifestyle living is within the community. This is where convenience meets you at the comfort of your home.&lt;br /&gt;&lt;br /&gt;For more information and viewing call our expert&lt;br /&gt;&lt;br /&gt;Mr. Amar Rupaney &lt;br /&gt;&lt;br /&gt;&lt;br /&gt;or visit www.gwp.ae for further details.</t>
+          <t>&lt;p&gt;Hamptons International proudly presents this stunning 4-bedroom villa in Sidra 1, Dubai Hills Estate, offering elegant interiors, spacious living areas, a modern kitchen, and a private garden, all within a vibrant, family-friendly community.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Property Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;4 Bedrooms Plus Maids Room&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Fully Landscaped garden&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Single row&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;BUA - 3,523 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Plot - 5708 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Ready to move in&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact Fariha Zahid 00971-565477115 for more details today!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sidra in Dubai Hills is an exclusive, family-friendly community set amidst lush greenery and scenic landscapes. Known for its modern villas and serene surroundings, Sidra offers a peaceful retreat with easy access to world-class amenities. Residents enjoy a blend of luxury living and natural beauty, with expansive parks, jogging trails, and recreational facilities just moments away. Located within the prestigious Dubai Hills Estate, Sidra is perfectly positioned for convenience, offering quick connections to key areas of Dubai while maintaining an atmosphere of tranquility and privacy.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006524</t>
+          <t>HI-S-006813</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13964256.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14191950.html</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4505,30 +4497,30 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>4-Bedroom, Type E3 | Single Row | Vacant</t>
+          <t>Great Location | Top Condition | Must See | VOT</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Fariha Zahid</t>
+          <t>Constantinos Philippou</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4543,19 +4535,19 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hamptons International proudly presents this stunning 4-bedroom villa in Sidra 1, Dubai Hills Estate, offering elegant interiors, spacious living areas, a modern kitchen, and a private garden, all within a vibrant, family-friendly community.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Property Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;4 Bedrooms Plus Maids Room&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Fully Landscaped garden&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Single row&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;BUA - 3,523 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Plot - 5708 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Ready to move in&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact Fariha Zahid for more details today!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sidra in Dubai Hills is an exclusive, family-friendly community set amidst lush greenery and scenic landscapes. Known for its modern villas and serene surroundings, Sidra offers a peaceful retreat with easy access to world-class amenities. Residents enjoy a blend of luxury living and natural beauty, with expansive parks, jogging trails, and recreational facilities just moments away. Located within the prestigious Dubai Hills Estate, Sidra is perfectly positioned for convenience, offering quick connections to key areas of Dubai while maintaining an atmosphere of tranquility and privacy.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hamptons International and Costa proudly present this rare and exceptional villa in the prestigious Sidra community of Dubai Hills Estate. Offering contemporary design, spacious living, and prime location, this home is perfect for luxury family living in one of Dubai’s most desired areas.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;4 bedrooms + maids room&lt;/p&gt;&lt;p&gt;Built up area - 3,607sqft&lt;/p&gt;&lt;p&gt;Plot size - 4,519sqft&lt;/p&gt;&lt;p&gt;2 car parking&lt;/p&gt;&lt;p&gt;Upgraded kitchen &amp;amp; flooring&lt;/p&gt;&lt;p&gt;Vacant on transfer&lt;/p&gt;&lt;p&gt;Back-to-back&lt;/p&gt;&lt;p&gt;Close to amenities &amp;amp; entrance&lt;/p&gt;&lt;p&gt;Gated community&lt;/p&gt;&lt;p&gt;Access to community facilities&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Sidra 1 is a premium residential community located within the prestigious Dubai Hills Estate, developed by Emaar. It features modern homes with contemporary architecture, spacious layouts, and high-end finishes. Surrounded by lush greenery, parks, and walking trails, Sidra 1 offers a serene suburban lifestyle while being just minutes away from central Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Residents enjoy access to top-tier amenities, including the Dubai Hills Mall, schools, hospitals, golf course, and community centres, making it an ideal location for families seeking both luxury and convenience.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Photos used in this listing may not reflect the actual property and are intended for marketing purposes only. Please schedule a viewing for accurate details.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006813</t>
+          <t>HI-S-006897</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14191950.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14223385.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4570,7 +4562,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sidra Villas I</t>
+          <t>Sidra Villas II</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4579,7 +4571,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10000000</v>
+        <v>10700000</v>
       </c>
       <c r="H41" t="n">
         <v>4</v>
@@ -4593,26 +4585,26 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>3607</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Great Location | Top Condition | Must See | VOT</t>
+          <t>Upgraded | Perfect Condition | VOT | Vastu</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4631,19 +4623,19 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hamptons International and Costa proudly present this rare and exceptional villa in the prestigious Sidra community of Dubai Hills Estate. Offering contemporary design, spacious living, and prime location, this home is perfect for luxury family living in one of Dubai’s most desired areas.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;4 bedrooms + maids room&lt;/p&gt;&lt;p&gt;Built up area - 3,607sqft&lt;/p&gt;&lt;p&gt;Plot size - 4,519sqft&lt;/p&gt;&lt;p&gt;2 car parking&lt;/p&gt;&lt;p&gt;Upgraded kitchen &amp;amp; flooring&lt;/p&gt;&lt;p&gt;Vacant on transfer&lt;/p&gt;&lt;p&gt;Back-to-back&lt;/p&gt;&lt;p&gt;Close to amenities &amp;amp; entrance&lt;/p&gt;&lt;p&gt;Gated community&lt;/p&gt;&lt;p&gt;Access to community facilities&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Sidra 1 is a premium residential community located within the prestigious Dubai Hills Estate, developed by Emaar. It features modern homes with contemporary architecture, spacious layouts, and high-end finishes. Surrounded by lush greenery, parks, and walking trails, Sidra 1 offers a serene suburban lifestyle while being just minutes away from central Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Residents enjoy access to top-tier amenities, including the Dubai Hills Mall, schools, hospitals, golf course, and community centres, making it an ideal location for families seeking both luxury and convenience.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Photos used in this listing may not reflect the actual property and are intended for marketing purposes only. Please schedule a viewing for accurate details.&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hamptons International, in collaboration with Costa, proudly presents a stunning and impeccably maintained villa in the highly sought-after Sidra 2, Dubai Hills Estate—offering luxury living, spacious interiors, and a prime location within one of Dubai’s premier communities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Key Features: &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;-4 bedrooms&lt;/p&gt;&lt;p&gt;-Maids room&lt;/p&gt;&lt;p&gt;-BUA - 3,533sqft&lt;/p&gt;&lt;p&gt;-Plot - 4,900sqft&lt;/p&gt;&lt;p&gt;-Back-to-back&lt;/p&gt;&lt;p&gt;-Upgraded modern kitchen and flooring&lt;/p&gt;&lt;p&gt;-Vacant on transfer&lt;/p&gt;&lt;p&gt;-Immaculate condition&lt;/p&gt;&lt;p&gt;-Landscaped garden&lt;/p&gt;&lt;p&gt;-Bright and spacious&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Experience refined living in this beautifully crafted 4-bedroom villa, nestled in the prestigious Sidra community of Dubai Hills Estate. Designed with sophistication and comfort in mind, this home showcases contemporary architecture, generous open-plan living spaces, and an abundance of natural light through expansive floor-to-ceiling windows.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Located in one of Dubai&amp;#39;s most sought-after communities, residents of Sidra enjoy lush green surroundings, proximity to international schools, Dubai Hills Mall, and the championship golf course, all while being just minutes from Downtown Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;This is more than a home — it’s a lifestyle of understated luxury and everyday convenience&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006897</t>
+          <t>HI-S-006953</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14223385.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14249982.html</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4667,10 +4659,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>10700000</v>
+        <v>14600000</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4681,30 +4673,26 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>3533</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>4900</t>
-        </is>
-      </c>
+          <t>6073</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Upgraded | Perfect Condition | VOT | Vastu</t>
+          <t>Corner Unit | Extended | Upgraded</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Constantinos Philippou</t>
+          <t>Rili Chen</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4719,19 +4707,19 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hamptons International, in collaboration with Costa, proudly presents a stunning and impeccably maintained villa in the highly sought-after Sidra 2, Dubai Hills Estate—offering luxury living, spacious interiors, and a prime location within one of Dubai’s premier communities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Key Features: &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;-4 bedrooms&lt;/p&gt;&lt;p&gt;-Maids room&lt;/p&gt;&lt;p&gt;-BUA - 3,533sqft&lt;/p&gt;&lt;p&gt;-Plot - 4,900sqft&lt;/p&gt;&lt;p&gt;-Back-to-back&lt;/p&gt;&lt;p&gt;-Upgraded modern kitchen and flooring&lt;/p&gt;&lt;p&gt;-Vacant on transfer&lt;/p&gt;&lt;p&gt;-Immaculate condition&lt;/p&gt;&lt;p&gt;-Landscaped garden&lt;/p&gt;&lt;p&gt;-Bright and spacious&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Experience refined living in this beautifully crafted 4-bedroom villa, nestled in the prestigious Sidra community of Dubai Hills Estate. Designed with sophistication and comfort in mind, this home showcases contemporary architecture, generous open-plan living spaces, and an abundance of natural light through expansive floor-to-ceiling windows.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Located in one of Dubai&amp;#39;s most sought-after communities, residents of Sidra enjoy lush green surroundings, proximity to international schools, Dubai Hills Mall, and the championship golf course, all while being just minutes from Downtown Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;This is more than a home — it’s a lifestyle of understated luxury and everyday convenience&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hamptons International presents this spacious 5-bedroom home with built-in wardrobes and sunlit windows. Includes 6 modern bathrooms with premium finishes, a maid&amp;#39;s room, study, and laundry facilities—ideal for comfortable, upscale living.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bedrooms&lt;/strong&gt;: 5 spacious rooms, each designed with built-in wardrobes and large windows to ensure ample natural light.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bathrooms&lt;/strong&gt;: 6 modern bathrooms, featuring high-end fixtures and finishes.&lt;/p&gt;&lt;p&gt;Maids room, study, and laundry facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h3&gt;Community &amp;amp; Lifestyle&lt;/h3&gt;&lt;p&gt;Sidra Villas is nestled within the expansive Dubai Hills Estate, a master-planned community that emphasizes green living and family-friendly amenities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Parks And Green Spaces&lt;/strong&gt;: Access to lush parks and landscaped gardens.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Recreational Facilities&lt;/strong&gt;: Swimming pools, fully equipped gyms, and children&amp;#39;s play areas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Walking And Cycling Trails&lt;/strong&gt;: Well-maintained paths promoting an active lifestyle.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Retail And Dining&lt;/strong&gt;: Proximity to Dubai Hills Mall and various dining options.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Educational And Healthcare&lt;/strong&gt;: Nearby schools and medical facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Strategically located between Downtown Dubai and Dubai Marina, Sidra Villas offers easy access to major roads like Al Khail Road and Sheikh Mohammed Bin Zayed Road. Future connectivity enhancements, including the Etihad Rail and Dubai Metro lines, will further improve accessibility.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact us today for more details!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006953</t>
+          <t>HYD-1859</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14249982.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14411857.html</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4755,10 +4743,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>14600000</v>
+        <v>15000000</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4769,31 +4757,35 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>6073</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>6537</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Corner Unit | Extended | Upgraded</t>
+          <t>One Of A Kind | Fully Extended | Upgraded</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Rili Chen</t>
+          <t>Dean Parrett</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Hamptons International - T1</t>
+          <t>HYDE REAL ESTATE</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4802,94 +4794,6 @@
         </is>
       </c>
       <c r="T43" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Hamptons International presents this spacious 5-bedroom home with built-in wardrobes and sunlit windows. Includes 6 modern bathrooms with premium finishes, a maid&amp;#39;s room, study, and laundry facilities—ideal for comfortable, upscale living.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bedrooms&lt;/strong&gt;: 5 spacious rooms, each designed with built-in wardrobes and large windows to ensure ample natural light.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bathrooms&lt;/strong&gt;: 6 modern bathrooms, featuring high-end fixtures and finishes.&lt;/p&gt;&lt;p&gt;Maids room, study, and laundry facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h3&gt;Community &amp;amp; Lifestyle&lt;/h3&gt;&lt;p&gt;Sidra Villas is nestled within the expansive Dubai Hills Estate, a master-planned community that emphasizes green living and family-friendly amenities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Parks And Green Spaces&lt;/strong&gt;: Access to lush parks and landscaped gardens.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Recreational Facilities&lt;/strong&gt;: Swimming pools, fully equipped gyms, and children&amp;#39;s play areas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Walking And Cycling Trails&lt;/strong&gt;: Well-maintained paths promoting an active lifestyle.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Retail And Dining&lt;/strong&gt;: Proximity to Dubai Hills Mall and various dining options.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Educational And Healthcare&lt;/strong&gt;: Nearby schools and medical facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Strategically located between Downtown Dubai and Dubai Marina, Sidra Villas offers easy access to major roads like Al Khail Road and Sheikh Mohammed Bin Zayed Road. Future connectivity enhancements, including the Etihad Rail and Dubai Metro lines, will further improve accessibility.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact us today for more details!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>HYD-1859</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14411857.html</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Sidra Villas II</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>6537</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>One Of A Kind | Fully Extended | Upgraded</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Dean Parrett</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>HYDE REAL ESTATE</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
         <is>
           <t>One Of A Kind | Fully Extended | Upgraded 
 -  Fully Upgraded
@@ -4909,85 +4813,85 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>HYD-1892</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14492033.html</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G44" t="n">
         <v>10700000</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H44" t="n">
         <v>4</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
         <is>
           <t>5011</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
         <is>
           <t>Prime Location | Spacious Plot | Type E3</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q45" t="inlineStr">
+      <c r="P44" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Jake Goddard</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>HYDE REAL ESTATE</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>Hyde Real Estate is delighted to present this exceptional 4-bedroom villa in Sidra Villas III, offering a luxurious lifestyle within the prestigious Dubai Hills Estate. 
 Crafted by Emaar, this elegantly designed residence blends generous space with high-end amenities—perfect for discerning buyers who value comfort, privacy, and convenience.
@@ -5015,89 +4919,89 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>HYD-931</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13403792.html</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G45" t="n">
         <v>11500000</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H45" t="n">
         <v>4</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
         <is>
           <t>6085</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>6085</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>4 Bed I Large Plot I Sidra 3 I Exclusive</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>153</v>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="P45" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>James Bloor</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>HYDE REAL ESTATE</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>4 Bed I Large Plot I Sidra 3 I Close to Pool and Park
 - Type E3 Large Layout
@@ -5118,85 +5022,85 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Huspy-13891723</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14280724.html</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G46" t="n">
         <v>11500000</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H46" t="n">
         <v>4</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
         <is>
           <t>Single Row | Large Plot | Near Amenities</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="P47" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q47" t="inlineStr">
+      <c r="P46" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Usama Sukhera</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Huspy Dubai</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>Huspy brings to the market this stunning 4 bedroom plus maid villa, located in the vibrant and sought-after Sidra Community.
 House specs:
@@ -5211,89 +5115,89 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>L-171057</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14341055.html</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G47" t="n">
         <v>17000000</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H47" t="n">
         <v>4</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
         <is>
           <t>3800</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>6600</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>Vacant Now | Resort Style | Ultra Luxury</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2025-05-23</t>
         </is>
       </c>
-      <c r="P48" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q48" t="inlineStr">
+      <c r="P47" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Chloe Cromar</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>Strada are delighted to showcase this stunning 4-bedroom villa in the sought-after Sidra 2 community, nestled within the prestigious Dubai Hills Estate.
 Property Highlights
@@ -5313,89 +5217,89 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>L-171158</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14364989.html</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G48" t="n">
         <v>13500000</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H48" t="n">
         <v>5</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
         <is>
           <t>4107</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>5334</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>Extended | Park Backing | Community Expert</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2025-05-27</t>
         </is>
       </c>
-      <c r="P49" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q49" t="inlineStr">
+      <c r="P48" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Megan Acomb</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>Strada is delighted to bring to the market this 5 Bedroom, E4 type villa in Sidra I, Dubai Hills Estate.
 Property Features and Details:
@@ -5415,89 +5319,89 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>L-171445</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14452237.html</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G50" t="n">
+      <c r="G49" t="n">
         <v>16000000</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H49" t="n">
         <v>5</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>4300</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>6398</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>Great location | Vacant soon | Community expert</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="P50" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q50" t="inlineStr">
+      <c r="P49" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Megan Acomb</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Strada is delighted to bring to the market this 5 Bedroom, E5 type villa in Sidra I, Dubai Hills Estate.
 Property Features and Details:
@@ -5518,89 +5422,89 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>L-172095</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14576597.html</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G51" t="n">
+      <c r="G50" t="n">
         <v>12000000</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H50" t="n">
         <v>4</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
         <is>
           <t>6331</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>6331</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>Large Plot | View Today | Vacant on Transfer</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="P51" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q51" t="inlineStr">
+      <c r="P50" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>George Evans</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>Strada are proud to offer this 4 bedroom (Type E3) villa with a large plot size in Sidra.
 - 4 Bed plus Maids
@@ -5617,89 +5521,89 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>L-172245</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14600792.html</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>16500000</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H51" t="n">
         <v>5</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
         <is>
           <t>6096</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>6096</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>Private Pool | Park Backing | Community Expert</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2025-06-26</t>
         </is>
       </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="inlineStr">
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>Megan Acomb</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>Strada is delighted to bring to the market this 5 Bedroom, E5 type villa in Sidra II, Dubai Hills Estate.
 Property Features and Details:
@@ -5721,89 +5625,89 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>L-6545</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14219837.html</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="G52" t="n">
         <v>16500000</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H52" t="n">
         <v>4</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>Ultra Luxurious | Fully Upgraded | Vacant Soon</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q53" t="inlineStr">
+      <c r="P52" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>Peter Delargey</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>EQUITY REAL ESTATES L.L.C</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>Equity wants you to experience a luxurious living space meticulously upgraded to offer an unparalleled lifestyle in Sidra Villa, Dubai Hills Estate.
 - 4 Bedroom + Maids
@@ -5826,85 +5730,85 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>L-6720</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14272084.html</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G54" t="n">
+      <c r="G53" t="n">
         <v>14750000</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H53" t="n">
         <v>5</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
         <is>
           <t>Upgraded E5 | Full Park Views | Vacant Now</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="P54" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q54" t="inlineStr">
+      <c r="P53" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>Gurnam Hallaith</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>EQUITY REAL ESTATES L.L.C</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>Equity presents this 5-bedroom Villa in Sidra Villas III, Dubai Hills Estate.
 - 5 Bedrooms
@@ -5922,15 +5826,99 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>LIV-S-1267</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14600503.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sidra Villas II</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>15350000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Premium Upgraded / Extended / Private Pool</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Iana Varyvoda</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Livrichy Real Estate Brokerage - Business Bay</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Livrichy Real Estate is delighted to present this elegant villa for sale located in the highly sought-after Sidra 2 community within Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Property Details:&lt;br /&gt;&lt;br /&gt;- Premium finishing&lt;br /&gt;- Full renovated (inside &amp;amp; out)&lt;br /&gt;- Private pool&lt;br /&gt;- BBQ and dining area, bar&lt;br /&gt;- Fully extended&lt;br /&gt;- Prime location&lt;br /&gt;- Large 4 bedroom &lt;br /&gt;- BUA: 4,640.86 sq ft&lt;br /&gt;&lt;br /&gt;This luxurious villa boasts a stunning infinity-edge pool, paired with a cozy fire pit lounge and a high-end outdoor culinary area - ideal for elegant gatherings and alfresco dining.&lt;br /&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Community Highlights:&lt;br /&gt;&lt;br /&gt;Family-friendly, secure environment&lt;br /&gt;Developed by Emaar in partnership with Meraas&lt;br /&gt;Located within Dubai’s premier golf course community&lt;br /&gt;18-hole championship golf course just minutes away&lt;br /&gt;Dubai Hills Mall nearby for retail, dining, and entertainment&lt;br /&gt;Two world-class hospitals, including King's College London Hospital&lt;br /&gt;Quick access to top international schools: Brighton College, GEMS, Kings School (approx. 15 minutes)&lt;br /&gt;Seamless connectivity to Al Khail Road and Umm Suqeim Street&lt;/p&gt;&lt;br /&gt;</t>
+        </is>
+      </c>
+    </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>LIV-S-1267</t>
+          <t>LP45347</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14600503.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14424924.html</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5945,7 +5933,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sidra Villas II</t>
+          <t>Sidra Villas III</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5954,7 +5942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>15350000</v>
+        <v>13000000</v>
       </c>
       <c r="H55" t="n">
         <v>4</v>
@@ -5968,31 +5956,35 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr"/>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Premium Upgraded / Extended / Private Pool</t>
+          <t>Exclusive | Elevated Plot | Backing Park</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Iana Varyvoda</t>
+          <t>Elijah Crabtree</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Livrichy Real Estate Brokerage - Business Bay</t>
+          <t>LuxuryProperty.com</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -6002,19 +5994,19 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Livrichy Real Estate is delighted to present this elegant villa for sale located in the highly sought-after Sidra 2 community within Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Property Details:&lt;br /&gt;&lt;br /&gt;- Premium finishing&lt;br /&gt;- Full renovated (inside &amp;amp; out)&lt;br /&gt;- Private pool&lt;br /&gt;- BBQ and dining area, bar&lt;br /&gt;- Fully extended&lt;br /&gt;- Prime location&lt;br /&gt;- Large 4 bedroom &lt;br /&gt;- BUA: 4,640.86 sq ft&lt;br /&gt;&lt;br /&gt;This luxurious villa boasts a stunning infinity-edge pool, paired with a cozy fire pit lounge and a high-end outdoor culinary area - ideal for elegant gatherings and alfresco dining.&lt;br /&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Community Highlights:&lt;br /&gt;&lt;br /&gt;Family-friendly, secure environment&lt;br /&gt;Developed by Emaar in partnership with Meraas&lt;br /&gt;Located within Dubai’s premier golf course community&lt;br /&gt;18-hole championship golf course just minutes away&lt;br /&gt;Dubai Hills Mall nearby for retail, dining, and entertainment&lt;br /&gt;Two world-class hospitals, including King's College London Hospital&lt;br /&gt;Quick access to top international schools: Brighton College, GEMS, Kings School (approx. 15 minutes)&lt;br /&gt;Seamless connectivity to Al Khail Road and Umm Suqeim Street&lt;/p&gt;&lt;br /&gt;</t>
+          <t>&lt;p&gt;Presented by LuxuryProperty.com, this exclusive four-bedroom villa in Sidra 3, Dubai Hills Estate, sits on an elevated corner plot backing directly onto the park and tennis courts. Boasting open views and a peaceful setting, the villa offers a unique opportunity for families seeking a private, park-facing home in one of Dubais most prestigious communities. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Key Features:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;br&gt; 4 Bedrooms, 4 Bathrooms&lt;br&gt; BUA: 3,500 sq. ft.&lt;br&gt; Plot: 4,669 sq. ft.&lt;br&gt; Elevated Corner Plot&lt;br&gt; Direct Park &amp;amp; Tennis Court Views&lt;br&gt; Contemporary Interior Finish&lt;br&gt; Vacant in 4 Weeks&lt;br&gt; Family-Friendly Layout&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Sidra 3 is a sought-after sub-community within Dubai Hills Estate, known for its well-planned streets, green landscapes, and easy access to top schools, Dubai Hills Mall, and major roads. Residents enjoy world-class amenities including parks, fitness trails, and golf facilities, making this home an excellent investment for modern family living.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>LP45347</t>
+          <t>LXF-S-71675</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14424924.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13798922.html</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6038,7 +6030,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>13000000</v>
+        <v>15500000</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
@@ -6052,35 +6044,31 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>3500</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Exclusive | Elevated Plot | Backing Park</t>
+          <t>Fully Upgraded | Extended | Swimming Pool | Vacant</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Elijah Crabtree</t>
+          <t>Harrison Fry</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>LuxuryProperty.com</t>
+          <t>Luxfolio Real Estate Brokers LLC</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -6090,7 +6078,12 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Presented by LuxuryProperty.com, this exclusive four-bedroom villa in Sidra 3, Dubai Hills Estate, sits on an elevated corner plot backing directly onto the park and tennis courts. Boasting open views and a peaceful setting, the villa offers a unique opportunity for families seeking a private, park-facing home in one of Dubais most prestigious communities. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Key Features:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;br&gt; 4 Bedrooms, 4 Bathrooms&lt;br&gt; BUA: 3,500 sq. ft.&lt;br&gt; Plot: 4,669 sq. ft.&lt;br&gt; Elevated Corner Plot&lt;br&gt; Direct Park &amp;amp; Tennis Court Views&lt;br&gt; Contemporary Interior Finish&lt;br&gt; Vacant in 4 Weeks&lt;br&gt; Family-Friendly Layout&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Sidra 3 is a sought-after sub-community within Dubai Hills Estate, known for its well-planned streets, green landscapes, and easy access to top schools, Dubai Hills Mall, and major roads. Residents enjoy world-class amenities including parks, fitness trails, and golf facilities, making this home an excellent investment for modern family living.&lt;/p&gt;</t>
+          <t>Luxfolio are proud to sell this beautiful, fully upgraded and extended 4 bedroom villa in Sidra, Dubai Hills.
+Discover unparalleled luxury in this fully upgraded and extended 4-bedroom villa located in the prestigious Sidra community of Dubai Hills. 
+This exceptional home offers a perfect blend of modern elegance and comfort, featuring a spacious open-plan layout with high-end finishes throughout. The state-of-the-art kitchen is a chef&amp;#39;s dream, equipped with premium appliances and custom cabinetry.
+ The expansive living and dining areas are ideal for entertaining, with large windows providing abundant natural light and stunning views of the landscaped garden. Each of the four bedrooms is generously sized, with the master suite offering a private retreat complete with a luxurious en-suite bathroom and walk-in closet. 
+The villa has been thoughtfully extended to include additional living space, perfect for a home office or family room. Outside, the beautifully landscaped garden offers a serene oasis, ideal for outdoor gatherings or relaxation. 
+Residents of Sidra enjoy access to world-class amenities, including a community pool, fitness center, and parks. Situated in the heart of Dubai Hills, this villa offers convenient access to top schools, shopping centers, and major roadways. Experience the ultimate in luxury living in this stunning Sidra villa</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6148,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -6254,7 +6247,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -6355,7 +6348,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -6457,7 +6450,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -6557,7 +6550,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6655,7 +6648,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Owner occupied | On top of the hill | Extended</t>
+          <t>VOT | Fully extended | Spanish tiles</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -6664,7 +6657,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6755,7 +6748,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Vacant now | Extended | Big Plot | Corner</t>
+          <t>Extended | Corner | Vacant | Single row</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -6764,7 +6757,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6857,7 +6850,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Vacant | Not mortgaged | Extended | Upgraded</t>
+          <t>Vacant | Cash Owner | Private Pool | Extended</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -6866,7 +6859,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6973,7 +6966,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Big Plot| Type E5| Vacant| Near Pool</t>
+          <t>Vacant| Near Pool| Big Plot| Type E5</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -6982,7 +6975,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -7091,7 +7084,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -7194,7 +7187,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -7263,7 +7256,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -7300,7 +7293,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -7409,7 +7402,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -7508,7 +7501,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -7612,7 +7605,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -7720,7 +7713,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7829,7 +7822,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -7941,7 +7934,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -8050,7 +8043,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -8138,7 +8131,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -8171,12 +8164,12 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>UQP-21877</t>
+          <t>UQP-22071</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14385015.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14462514.html</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8191,7 +8184,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sidra Villas I</t>
+          <t>Sidra Villas III</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8200,10 +8193,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>14500000</v>
+        <v>9100000</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -8214,35 +8207,35 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>4756</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Luxury 4BR plus Maid | Extended I Prime Location</t>
+          <t>Exclusive | Vacant On Transfer | Single row</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Kapil Gurbani</t>
+          <t>Nicole Saletnik</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Unique Properties</t>
+          <t>Unique Properties - Secondary</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -8251,120 +8244,6 @@
         </is>
       </c>
       <c r="T77" t="inlineStr">
-        <is>
-          <t>Unique Properties is delighted to introduce this stunning upgraded four-bedroom villa plus maids, freshly listed in the premium community of Sidra in Dubai Hills Estate. This Sidra villa offers an unparalleled blend of sophistication, comfort, and modern elegance.
-Property Details and Features:
-•‎ Type E3 
-•‎ 4 bedrooms extended by 20%
-•‎ BUA: 4,000 sq. ft.
-•‎ Plot size - 5140.31 sq. ft.
-•‎ Elevated Plot 
-•‎ Courtyard extended
-•‎ Quiet and Greenery Area
-•‎ Great Location 
-•‎ Closed Kitchen 
-•‎ Outdoor Kitchen 
-•‎ Master bedroom extended 
-•‎ Walk-in closet 
-•‎ Exquisite finishing
-•‎ Upgraded Flooring
-•‎ Viewable Upon Request
-Sidra is Dubai’s most vibrant and premium new community. Dubai Hills is strategically positioned on Al Khail Road and southeast of Downtown Dubai. The destination has an endless supply of nature trails and green spaces so you can live life in harmony with nature and world-class residential, hospitality and retail districts. The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master planned to connect you with some of the best choices in education, shopping, healthcare and sports.
-Connectivity:‎
-‎•‎ ‎29 minutes’ drive to Dubai Mall
-•‎ ‎34 minutes to Palm Jumeirah
-‎•‎ ‎32 minutes to Burj Al Arab
-‎•‎ ‎38 minutes to The Walk JBR
-‎•‎ ‎‎35 minutes to Dubai International Airport (DXB)‎
-‎•‎ ‎43 minutes to Al Maktoum International Airport
-Hurry! Properties like this don’t come on the market every day. Call our agent to find out more.
-Unique Properties is your gateway to Dubai&amp;#39;s award-winning international Real Estate. Since 2008, we&amp;#39;ve been a leading agency, serving thousands of customers from around the globe and helping them find dream homes and lucrative investments. Discover off-plan gems or luxurious residences with our expert, globally diverse team. Trust us for honest advice and exceptional service on your property journey!</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>UQP-22071</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14462514.html</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>9100000</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>3117</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>4756</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Exclusive | Vacant On Transfer | Single row</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Nicole Saletnik</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Unique Properties - Secondary</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
         <is>
           <t>Unique Properties is pleased to present this exclusive newly listed 3-Bedroom plus maids, in Sidra 3, Dubai Hills Estate.
 Property Details and Features:
@@ -8390,89 +8269,89 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>UQP-22182</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14514254.html</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G79" t="n">
+      <c r="G78" t="n">
         <v>16000000</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H78" t="n">
         <v>5</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>6400</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>Exclusive listed |Type E5|Park Facing|Vacant Soon</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="P79" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q79" t="inlineStr">
+      <c r="P78" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q78" t="inlineStr">
         <is>
           <t>Armin Jalili</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>Unique Properties</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>Unique Properties are pleased to offer this 5-bedroom villas in Sidra Villas 1 located in Dubai Hills Estate. 
 Sidra Villas I is a premium residential community developed by Emaar Properties within Dubai Hills Estate, offering contemporary living in a serene, green environment. This gated sub-community is situated on the western side of Dubai Hills Estate, close to Umm Suqeim Street (D63), and is part of a larger development comprising three phases. Sidra Villas, I consist of 475 villas and was completed in June 2019. 
@@ -8506,89 +8385,89 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>VI10126-1</t>
         </is>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14481744.html</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="H80" t="n">
+      <c r="G79" t="n">
+        <v>16800000</v>
+      </c>
+      <c r="H79" t="n">
         <v>5</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
         <is>
           <t>4588</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>6176</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>Pool | Upgraded | Extended | Furnished | VOT</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="P80" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q80" t="inlineStr">
+      <c r="P79" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q79" t="inlineStr">
         <is>
           <t>Lillian Le Campion</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>Black Brick</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>BlackBrick is proud to present this immaculate, fully extended 5 bedroom E5 type Villa located in Sidra 2 in Dubai Hills Estate.
 This stunning single-row villa sits on an elevated plot and is park backing providing superb privacy. This property features a larger than average plot at 6176.76 sqft and has been fully extended downstairs and upstairs providing an expanded interior space of 4,588 sqft. 
@@ -8619,89 +8498,89 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>VI11639</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14598792.html</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G81" t="n">
+      <c r="G80" t="n">
         <v>12500000</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H80" t="n">
         <v>5</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
         <is>
           <t>5330</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>5330</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>Green Belt | Vacant Soon | Corner Unit | Genuine</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>2025-06-26</t>
         </is>
       </c>
-      <c r="P81" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q81" t="inlineStr">
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="inlineStr">
         <is>
           <t>Sarah Sinclair</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>Exclusive Luxury | Spacious 5-Bedroom Villa | Family-Friendly Community
 Presenting an exquisite 5-bedroom villa in the prestigious Sidra Villas I of Dubai Hills Estate. This stunning property boasts a generous plot area of 5,330 sq.ft, perfect for modern family living, while offering serene views of lush greenery and water features.
@@ -8720,89 +8599,89 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>VI29731</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14527863.html</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G82" t="n">
+      <c r="G81" t="n">
         <v>13649999</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H81" t="n">
         <v>5</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
         <is>
           <t>5652</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>5652</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>Genuine | Vacant Soon | Rare Layout</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="P82" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q82" t="inlineStr">
+      <c r="P81" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q81" t="inlineStr">
         <is>
           <t>Alec Smith</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>Savills Dubai</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>Expansive Elegance | 5-Bedroom Villa | Dubai Hills Estate
 Presenting a stunning 5-bedroom villa in the prestigious Sidra Villas community of Dubai Hills Estate, this residence spans an impressive 5,652 sq.ft, offering a harmonious blend of luxury and comfort. With 6 meticulously designed bathrooms and a spacious layout, this villa is perfect for discerning families seeking space and sophistication.
@@ -8823,85 +8702,85 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>VI565450-3</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14464565.html</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G83" t="n">
+      <c r="G82" t="n">
         <v>9000500</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H82" t="n">
         <v>4</v>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
         <is>
           <t>3237</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
         <is>
           <t>Great Location | Rare Type | Large Plot</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
       </c>
-      <c r="P83" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q83" t="inlineStr">
+      <c r="P82" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q82" t="inlineStr">
         <is>
           <t>Michael Adele</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>Introducing this tenanted 4-bedroom E2 Type villa in the desirable Sidra community of Dubai Hills Estate. Situated on a spacious plot, this property offers abundant outdoor space and a prime investment opportunity.
 The villa features a modern design with high ceilings, open-plan living areas, and large windows that fill the home with natural light. The contemporary kitchen is stylish and functional, while the bedrooms, including a master suite with a private balcony, provide comfort and privacy.
@@ -8910,85 +8789,85 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>VI738383-3</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14503308.html</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G84" t="n">
+      <c r="G83" t="n">
         <v>8350000</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H83" t="n">
         <v>3</v>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
         <is>
           <t>4552</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
         <is>
           <t>Great Location | Investors Deal | Rented</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>2025-06-15</t>
         </is>
       </c>
-      <c r="P84" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q84" t="inlineStr">
+      <c r="P83" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q83" t="inlineStr">
         <is>
           <t>Kieran Sheehan</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>Betterhomes are proud to offer this 3 bedroom villa in Sidra - Dubai Hills Estate.
 The property boasts a naturally landscaped garden and a large plot, ideal for families. The villa is situated a stones throw from the pool, park and entrance meaning access is extremely easy. Overall, the condition of the property is immaculate and viewings are highly recommended. 
@@ -9004,89 +8883,89 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>VI738388-5</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14445291.html</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G85" t="n">
+      <c r="G84" t="n">
         <v>15000000</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H84" t="n">
         <v>5</v>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
         <is>
           <t>6900</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>6900</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>Price Reduction | Huge Plot | Vacant Now</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>2025-06-06</t>
         </is>
       </c>
-      <c r="P85" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q85" t="inlineStr">
+      <c r="P84" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q84" t="inlineStr">
         <is>
           <t>Kieran Sheehan</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>MULTIPLE OPTIONS AVAILABLE
 Kieran and Betterhomes are proud to offer this 5 bedroom plus maids (E5) villa situated in one of the best locations across the whole of the Sidra community.
@@ -9106,89 +8985,89 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>VI739138-5</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14445300.html</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G86" t="n">
+      <c r="G85" t="n">
         <v>11000000</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H85" t="n">
         <v>4</v>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
         <is>
           <t>4850</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>4850</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>Upgraded | Vacant on Transfer | Viewable</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>2025-06-06</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q86" t="inlineStr">
+      <c r="P85" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q85" t="inlineStr">
         <is>
           <t>Kieran Sheehan</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>Betterhomes are proud to offer this upgraded 4 bedroom (Type E3) villa situated in one of the best locations across the whole of the Sidra community. 
 - Vastu Compliant 
@@ -9206,89 +9085,89 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>VI739153-3</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14240888.html</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G87" t="n">
+      <c r="G86" t="n">
         <v>10850000</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H86" t="n">
         <v>4</v>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
         <is>
           <t>4900</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>4900</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="N86" t="inlineStr">
         <is>
           <t>Vastu Compliant | Upgraded E3 | Viewable</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="P87" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q87" t="inlineStr">
+      <c r="P86" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q86" t="inlineStr">
         <is>
           <t>Kieran Sheehan</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>Betterhomes are proud to offer this 4 bedroom (Type E3) villa with the best locations across the whole of the Sidra community.
 - Big plot - over 4,900 sqft
@@ -9307,89 +9186,89 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>VI740215-1</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14147307.html</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G88" t="n">
+      <c r="G87" t="n">
         <v>12000000</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H87" t="n">
         <v>4</v>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
         <is>
           <t>4850</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>4850</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>Price Drop | Extended Villa | Single Row</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="P88" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q88" t="inlineStr">
+      <c r="P87" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q87" t="inlineStr">
         <is>
           <t>Kieran Sheehan</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>Kieran and Betterhomes are proud to offer this 4 bedroom (Type E3) villa situated in one of the best locations across the whole of the Sidra community.
 - Extended Downstairs (Courtyard) &amp;amp; Master Balcony Enclosed
@@ -9406,89 +9285,89 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>VI743359</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14483475.html</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G89" t="n">
+      <c r="G88" t="n">
         <v>10495000</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H88" t="n">
         <v>3</v>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
         <is>
           <t>3350</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>4805</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>PRICE REDUCED | FULLY EXTENDED | VOT</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="P89" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q89" t="inlineStr">
+      <c r="P88" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q88" t="inlineStr">
         <is>
           <t>Jonathan Martin Coates</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>Jon at Betterhomes is proud to present this beautifully upgraded Type E1 3-bedroom villa in the highly sought-after Sidra Community, Dubai Hills. This exceptional home has been fully extended beyond the standard 10% EMAAR limit, with all necessary NOCs in place.
 Step inside to experience a tastefully renovated interior that seamlessly combines modern design with everyday functionality. The original courtyard area has been enclosed and now serves as a discreet playroom, complete with a hidden door for a clean finish. The kitchen has been completely reimagined, relocated to the right side of the living space and outfitted with premium Miele appliances. This strategic layout change allows for the addition of a striking bar and island, perfect for entertaining.
@@ -9507,85 +9386,85 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>VI743569</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14534970.html</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G90" t="n">
+      <c r="G89" t="n">
         <v>14600000</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H89" t="n">
         <v>5</v>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
         <is>
           <t>4644</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
         <is>
           <t>Backs Pool | Notice Served |Extended and Outhouse</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="P90" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q90" t="inlineStr">
+      <c r="P89" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q89" t="inlineStr">
         <is>
           <t>Harry House</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>Betterhomes Prime is proud to present this truly unique villa in Sidra.
 Note: These are generic photos — professional photos will be uploaded Friday.
@@ -9603,85 +9482,85 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>VI7613-2</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14381328.html</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G91" t="n">
+      <c r="G90" t="n">
         <v>9500000</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H90" t="n">
         <v>4</v>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
         <is>
           <t>3700</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Ready to Move In | Single Row | Upgraded</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Exclusive | Single Row | Vacant Soon</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="P91" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q91" t="inlineStr">
+      <c r="P90" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q90" t="inlineStr">
         <is>
           <t>Waleed Mirza</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>Irwin Real Estate L.L.C</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>Tanya and Irwin Real Estate are very pleased to present this stunning property in the highly sought after Sidra community within Dubai Hills Estate.
 Lovely upgraded with modern design 4 Bedroom Villa is located in Sidra Villas III. Ground floor living room extended with glass ceiling on the roof, second floor master bedroom balcony is enclosed to a study room.
@@ -9698,89 +9577,89 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>VI7629</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14369607.html</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G92" t="n">
+      <c r="G91" t="n">
         <v>11950000</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H91" t="n">
         <v>4</v>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
         <is>
           <t>4901</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>4901</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>Family Haven | Stunning | Maids Room</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>2025-05-27</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q92" t="inlineStr">
+      <c r="P91" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q91" t="inlineStr">
         <is>
           <t>Wassim Attieh</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>Luxbridge International Realty</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>Luxbridge International realty wants you to discover an exquisite 4-bedroom villa in the coveted Sidra Villas III, nestled within the prestigious Dubai Hills Estate. This spacious home spans 4,901.67 sq. ft. and combines luxury and comfort, making it an ideal retreat for families.
 Key Highlights:
@@ -9796,89 +9675,89 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>VI7738</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14576481.html</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G93" t="n">
+      <c r="G92" t="n">
         <v>8200000</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H92" t="n">
         <v>3</v>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>4417</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="N92" t="inlineStr">
         <is>
           <t>Exclusive I Prime Location I Vacant Soon</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="P93" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q93" t="inlineStr">
+      <c r="P92" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
         <is>
           <t>Luqman Akhtar</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>Irwin Real Estate L.L.C</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>Introducing a beautifully positioned 3 bedroom villa with maid’s room in the sought after Sidra 2 community of Dubai Hills Estate, set on a generous 4,417 sq. ft plot.
 Key Highlights:
@@ -9894,85 +9773,85 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>VI8874-1</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14385425.html</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G94" t="n">
+      <c r="G93" t="n">
         <v>12000000</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H93" t="n">
         <v>4</v>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
         <is>
           <t>3526</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
         <is>
           <t>Community Expert | Best Location | Vacant</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
       </c>
-      <c r="P94" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q94" t="inlineStr">
+      <c r="P93" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q93" t="inlineStr">
         <is>
           <t>Ahlam Dourhi</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>Jade &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>Jade &amp;amp; Co Real Estate is thrilled to present this beautifully located property on the green belt, now vacant and ready for immediate move-in.
 - 4 Bedrooms plus Maid
@@ -9992,85 +9871,85 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>VI8947</t>
         </is>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14436121.html</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G95" t="n">
+      <c r="G94" t="n">
         <v>14000000</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H94" t="n">
         <v>5</v>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
         <is>
           <t>Community Expert | Type E5 | True Corner Plot</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>2025-06-04</t>
         </is>
       </c>
-      <c r="P95" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q95" t="inlineStr">
+      <c r="P94" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q94" t="inlineStr">
         <is>
           <t>Ahlam Dourhi</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>Jade &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>Jade &amp;amp; Co Real Estate is delighted to present this priced to sell 5-bedroom villa with a maid&amp;#39;s room in the charming community of Sidra, Dubai Hills. This property presents an excellent opportunity for renovation. Positioned as a corner unit, it boasts ultimate privacy and views of the green belt.
 - 5 Bedrooms+Maid
@@ -10092,85 +9971,85 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>VI8948</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14437211.html</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G96" t="n">
+      <c r="G95" t="n">
         <v>16500000</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H95" t="n">
         <v>4</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
         <is>
           <t>Community Expert | Turn-Key | Rare Property</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>2025-06-04</t>
         </is>
       </c>
-      <c r="P96" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q96" t="inlineStr">
+      <c r="P95" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q95" t="inlineStr">
         <is>
           <t>Ahlam Dourhi</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
+      <c r="R95" t="inlineStr">
         <is>
           <t>Jade &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>Jade &amp;amp; Co is delighted to present a unique opportunity in the charming community of Sidra. This one-of-a-kind villa is a fully upgraded 4-bedroom + maid&amp;#39;s residence, boasting luxurious finishes throughout .
 - 4 Bedrooms+  Maid
@@ -10193,85 +10072,85 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>VI9016-2</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14588191.html</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G97" t="n">
+      <c r="G96" t="n">
         <v>8000000</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H96" t="n">
         <v>3</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
         <is>
           <t>3345</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
         <is>
           <t>RENTED  |   BACK TO BACK | CLOSE TO POOL</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="P97" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q97" t="inlineStr">
+      <c r="P96" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q96" t="inlineStr">
         <is>
           <t>Victoria Burca</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>Presenting an exquisite 3-bedroom villa in the sought-after Sidra Villas III within the prestigious Dubai Hills Estate. This stunning residence boasts a generous built-up area of 3,345 sq.ft and offers a perfect blend of luxury and comfort, ideal for families and discerning buyers alike.
 Key Highlights:
@@ -10282,93 +10161,93 @@
 - Parking for 2 cars 
 As you step inside, you&amp;#39;ll be welcomed by light-filled spaces and premium finishes that amplify the villa&amp;#39;s appeal. The open-concept living area transitions seamlessly to a private garden, creating an inviting atmosphere for relaxation and entertaining. This villa offers an exceptional lifestyle, complete with modern conveniences and picturesque views.
 Dubai Hills Estate is a vibrant community featuring lush green spaces, retail outlets, and dining options, redefining modern living with its exceptional amenities and connectivity. 
-Don&amp;#39;t miss this opportunity to own a distinct piece of family-centric luxury. For more information or to schedule a viewing, please contact Phoenix Homes Real Estate today.</t>
+Don&amp;#39;t miss this opportunity to own a distinct piece of family-centric luxury. For more information or to schedule a viewing, please contact Phoenix Homes Real Estate today..</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>VTJ53</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14538171.html</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G98" t="n">
+      <c r="G97" t="n">
         <v>9000000</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H97" t="n">
         <v>4</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
         <is>
           <t>3237</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>4787</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="N97" t="inlineStr">
         <is>
           <t>Large Plot | 4 Bed | Investment Deal</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="P98" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q98" t="inlineStr">
+      <c r="P97" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q97" t="inlineStr">
         <is>
           <t>Vikesh Desai</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="R97" t="inlineStr">
         <is>
           <t>Canary Island Properties</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>Canary Island Properties is proud to present this stunning 4-Bedroom villa in Sidra Villas, Dubai Hills Estate. 
 - 4 Bedroom
@@ -10384,89 +10263,89 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>axc-3988896-r1</t>
         </is>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14093156.html</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G99" t="n">
+      <c r="G98" t="n">
         <v>11000000</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H98" t="n">
         <v>4</v>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>5326</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>Corner | Spacious Plot | Ready to move in | Modern</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="P99" t="n">
-        <v>66</v>
-      </c>
-      <c r="Q99" t="inlineStr">
+      <c r="P98" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q98" t="inlineStr">
         <is>
           <t>George Nakrour</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr">
+      <c r="R98" t="inlineStr">
         <is>
           <t>AX CAPITAL Real Estate</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T99" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>AX CAPITAL Real Estate is offering to the market this venture from the world-leading developer Emaar; Dubai Hills Sidra Villas 2. 
 This community is the definition of contemporary living with a sense of community; all your needs are around with only a short drive to malls, educational entities, and sports clubs.
@@ -10491,89 +10370,89 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>fastway-8354868</t>
         </is>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-11438547.html</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G100" t="n">
+      <c r="G99" t="n">
         <v>20000000</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H99" t="n">
         <v>5</v>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>5755</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>Exclusive | Upgraded | Park view E5 | Single Row</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>433</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="P99" t="n">
+        <v>434</v>
+      </c>
+      <c r="Q99" t="inlineStr">
         <is>
           <t>Leo Liu</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>Fast Way Real Estate Broker</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>Fastway Real Estate is pleased to bring to the market this Exclusive listing a very in-demand 5-bedroom E5 villa, situated within Sidra 2 in a great location sitting on an elevated plot this villa is a must-see with a nice mature garden, dinning and upgraded kitchen, floor to ceiling windows the villa is flooded with lots of natural light and is a really enjoyable space. with the master being spacious with a walk-in wardrobe and balcony overlooking the greenery.
 -Type 5
@@ -10591,85 +10470,85 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>laforet-360</t>
         </is>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13726568.html</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G101" t="n">
+      <c r="G100" t="n">
         <v>14000000</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H100" t="n">
         <v>5</v>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
         <is>
           <t>3742</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
         <is>
           <t>Fully Upgraded + Pool I Big Plot Size I Park View</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
-      <c r="P101" t="n">
-        <v>114</v>
-      </c>
-      <c r="Q101" t="inlineStr">
+      <c r="P100" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q100" t="inlineStr">
         <is>
           <t>Reka Probst</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
+      <c r="R100" t="inlineStr">
         <is>
           <t>LAFORET REAL ESTATE L.L.C</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>Laforet Real Estate is delighted to offer this stunning 5-bedroom villa nestled in Sidra 1, Dubai Hills Estate—an exceptional opportunity to embrace luxury living. This fully upgraded home offers a private pool for exclusive relaxation and privacy, alongside 5 modern bathrooms and spacious living areas designed for comfort and elegance.
 Property Highlights:
@@ -10699,89 +10578,89 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>luxure-13834374</t>
         </is>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14188226.html</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G102" t="n">
+      <c r="G101" t="n">
         <v>15500000</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H101" t="n">
         <v>5</v>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
         <is>
           <t>4902</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>4902</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>Fullly Upgraded | Furnished | Private Pool</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>2025-05-06</t>
         </is>
       </c>
-      <c r="P102" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q102" t="inlineStr">
+      <c r="P101" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q101" t="inlineStr">
         <is>
           <t>Hibildas Haridas</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr">
+      <c r="R101" t="inlineStr">
         <is>
           <t>THE LUXURY REAL ESTATE BROKER L.L.C</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="S101" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr">
+      <c r="T101" t="inlineStr">
         <is>
           <t>The Luxury Real Estate is thrilled to present this fully upgraded, spacious, and elegantly furnished 4-bedroom villa with a serene community view in Sidra III, developed by Emaar Properties.
 Property Features:
@@ -10800,178 +10679,85 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>nassira-propertie-12288954</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13283643.html</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>nexus-3745</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14575758.html</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Sidra Villas II</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G103" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="H103" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" t="inlineStr">
+      <c r="G102" t="n">
+        <v>18800000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spacious l Plus Maid l A Perfect Family Community </t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>168</v>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>Gladys Maade</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>Nassira Realty Group</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>5983</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Private Pool | Park View | Fully Upgraded</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Vladyslav Mychevskyi</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Nexus Point</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nassira Properties is pleased to present this beautiful 3-bedroom villa in Sidra, Dubai Hills Estate.
-This spacious property features a naturally landscaped garden and a large plot, making it perfect for families. The villa is ideally located just a stone&amp;#39;s throw away from the pool, park, and entrance, offering convenient access to all amenities. The property is in immaculate condition, and viewings are highly recommended.
-Sidra Villas in Dubai Hills Estate is an outstanding location for families seeking convenience, beautiful surroundings, and easy access to the city. The community is both elegant and family-friendly, offering a wide array of amenities and facilities for residents to enjoy. With the added benefit of being close to key attractions within Dubai Hills Estate, residents can take advantage of the central park, vibrant boulevard, and the Dubai Hills Mall, ensuring a perfect blend of luxury and practicality right at your doorstep.
-Key Features:
-Prime Location
-Impeccable Condition
-Spacious Plot
-Perfect Family Home
-Close to the Entrance &amp;amp; Walking Distance to the Pool
-For more information, to arrange a viewing, or to make an offer, please contact Gladys </t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>nexus-3745</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14575758.html</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Sidra Villas II</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>18800000</v>
-      </c>
-      <c r="H104" t="n">
-        <v>5</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>5983</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Private Pool | Park View | Fully Upgraded</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>Vladyslav Mychevskyi</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>Nexus Point</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>Nexus Point Real Estate is excited to offer this beautifully upgraded villa in Sidra II, Dubai Hills Estate. With a private pool, park views, and a peaceful green belt right outside, it’s perfectly located just moments from all the community amenities and it’s ready for you to move in.
 Key Features: 
@@ -11000,89 +10786,89 @@
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>oneportfoliore-13860659</t>
         </is>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14223053.html</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G105" t="n">
+      <c r="G103" t="n">
         <v>7800000</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H103" t="n">
         <v>3</v>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>4526</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>Luxurious| Back to Back | Landscaped Garden</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="P105" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q105" t="inlineStr">
+      <c r="P103" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q103" t="inlineStr">
         <is>
           <t>Loan Triquet</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr">
+      <c r="R103" t="inlineStr">
         <is>
           <t>One Portfolio Real Estate</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr">
+      <c r="S103" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr">
+      <c r="T103" t="inlineStr">
         <is>
           <t>One Portfolio Real Estate LLC is proud to present this exceptional 3-bedroom villa with maid room , located in the highly sought-after Sidra II community of Dubai Hills Estate. This stunning residence exudes modern elegance and offers a lifestyle of luxury and convenience.
 Step into a world of sophistication and refinement, where every detail has been meticulously crafted to provide an unparalleled living experience.
@@ -11108,89 +10894,89 @@
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>oriental--12655170</t>
         </is>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13466846.html</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G106" t="n">
+      <c r="G104" t="n">
         <v>10500000</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H104" t="n">
         <v>4</v>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
         <is>
           <t>3450</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>Standalone villa | Single row | Prime location</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
-      <c r="P106" t="n">
-        <v>145</v>
-      </c>
-      <c r="Q106" t="inlineStr">
+      <c r="P104" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q104" t="inlineStr">
         <is>
           <t>Ayong Jin</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="R104" t="inlineStr">
         <is>
           <t>ORIENTAL HORIZON PROPERTIES L.L.C</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T106" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>Oriental Horizon Properties is pleased to present this stunning four-bedroom home in the highly sought-after Sidra neighbourhood of the Dubai Hills.
 Property Features:
@@ -11224,85 +11010,85 @@
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>park-lane-premium-11579886</t>
         </is>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-12938881.html</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G107" t="n">
+      <c r="G105" t="n">
         <v>18000000</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H105" t="n">
         <v>5</v>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
         <is>
           <t>6021</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
         <is>
           <t>Park Facing | Corner Plot | Fully Upgraded</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>2024-11-26</t>
         </is>
       </c>
-      <c r="P107" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q107" t="inlineStr">
+      <c r="P105" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q105" t="inlineStr">
         <is>
           <t>Inna Liashenko</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>Park Lane Premium Properties LLC</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T107" t="inlineStr">
+      <c r="T105" t="inlineStr">
         <is>
           <t>Park Lane Premium Properties LLC is Presenting a truly luxurious living experience in one of Dubai’s most sought-after communities—Sidra at Dubai Hills Estate. This extended size 5-bedroom villa is fully furnished, fully fitted, and ready for immediate occupancy. Located on a corner plot with stunning park-facing views.
 Key Features:
@@ -11327,85 +11113,85 @@
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>sidra1-Dubai-Hills-Estate</t>
         </is>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14383967.html</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G108" t="n">
+      <c r="G106" t="n">
         <v>25000000</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H106" t="n">
         <v>7</v>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
         <is>
           <t>5100</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
         <is>
           <t xml:space="preserve">Exclusive 7 Bedrooms | Park View | Upgraded </t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
       </c>
-      <c r="P108" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q108" t="inlineStr">
+      <c r="P106" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q106" t="inlineStr">
         <is>
           <t>Aamir Khan</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>BESTRONG REAL ESTATE BROKERAGE L.L.C</t>
         </is>
       </c>
-      <c r="S108" t="inlineStr">
+      <c r="S106" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T108" t="inlineStr">
+      <c r="T106" t="inlineStr">
         <is>
           <t xml:space="preserve">Experience true luxury living in this exceptionally upgraded 7-bedroom villa in the prestigious Sidra 1, Dubai Hills Estate. With a fully extended layout and elegant design, this home offers an ideal setting for comfort, privacy, and family living.
 Property Details:
@@ -11445,89 +11231,89 @@
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>sisure-13062523-8b</t>
         </is>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14456651.html</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G109" t="n">
+      <c r="G107" t="n">
         <v>8500000</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H107" t="n">
         <v>3</v>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
+      <c r="N107" t="inlineStr">
         <is>
           <t>Corner | Serious Seller | Vastu</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="P109" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q109" t="inlineStr">
+      <c r="P107" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q107" t="inlineStr">
         <is>
           <t>Omar Zein</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr">
+      <c r="R107" t="inlineStr">
         <is>
           <t>SISU REAL ESTATE L.L.C</t>
         </is>
       </c>
-      <c r="S109" t="inlineStr">
+      <c r="S107" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T109" t="inlineStr">
+      <c r="T107" t="inlineStr">
         <is>
           <t>Sisu Real Estate is delighted to present this modern 3 Bedrooms Villa at Sidra 3 - Dubai Hills Estate
 • Sidra 3 - Dubai Hills Estate
@@ -11557,89 +11343,89 @@
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
         <is>
           <t>stage-11132185</t>
         </is>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-12742531.html</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G110" t="n">
+      <c r="G108" t="n">
         <v>11500000</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H108" t="n">
         <v>4</v>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>6228</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>Huge Plot | Tenanted 4BR Villa | Landscaped Garden</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>2024-10-31</t>
         </is>
       </c>
-      <c r="P110" t="n">
-        <v>242</v>
-      </c>
-      <c r="Q110" t="inlineStr">
+      <c r="P108" t="n">
+        <v>243</v>
+      </c>
+      <c r="Q108" t="inlineStr">
         <is>
           <t>Ghassan Saliba</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr">
+      <c r="R108" t="inlineStr">
         <is>
           <t>Stage Properties Brokers L.L.C</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr">
+      <c r="S108" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T110" t="inlineStr">
+      <c r="T108" t="inlineStr">
         <is>
           <t>Stage Properties is proudly presents this Bespoke and Huge 4 Bedroom Villa located in Sidra Villas 2, Dubai Hills Estate -Dubai’s most Vibrant and Premium community.
 Sidra 2 is a gated sub-community of Dubai Hills Estate, Dubai, and is situated near the center of the development close to Al Khail Road (E44). 
@@ -11680,85 +11466,85 @@
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
         <is>
           <t>sycapital-14008540</t>
         </is>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14539531.html</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G111" t="n">
+      <c r="G109" t="n">
         <v>8500000</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H109" t="n">
         <v>3</v>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
         <is>
           <t>4347</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
         <is>
           <t>Spacious 3 Bedroom Villa | Landscaped Garden</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q111" t="inlineStr">
+      <c r="P109" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q109" t="inlineStr">
         <is>
           <t>Muhammad Sajid</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr">
+      <c r="R109" t="inlineStr">
         <is>
           <t>SY Capital Estates</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="S109" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T111" t="inlineStr">
+      <c r="T109" t="inlineStr">
         <is>
           <t>Annuated interior to experience a tastefully interior that seamlessly combines modern design with everyday functionality.
 Sidra II is a master-planned community designed to cater to families seeking an exceptional lifestyle. This remarkable property is situated in a prime location within Sidra II, offering easy access to Dubai Hills Mall and The Golf Club, both just a short distance away.
@@ -11778,85 +11564,85 @@
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
         <is>
           <t>whitebricks-sidra4bed</t>
         </is>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14248624.html</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G112" t="n">
+      <c r="G110" t="n">
         <v>10999999</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H110" t="n">
         <v>4</v>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
         <is>
           <t>4742</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
         <is>
           <t>Serene Park Views | Vacant Now | In Demand</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>2025-05-13</t>
         </is>
       </c>
-      <c r="P112" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q112" t="inlineStr">
+      <c r="P110" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q110" t="inlineStr">
         <is>
           <t>Mohammed Faraz</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr">
+      <c r="R110" t="inlineStr">
         <is>
           <t>WHITE BRICKS REAL ESTATE L.L.C</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="S110" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="T112" t="inlineStr">
+      <c r="T110" t="inlineStr">
         <is>
           <t>Luxury Villa | Great Location | Close To Facilities 
 White bricks real estate is delighted to offer for sale this one of a kind 4-bedroom villa located at Sidra 2 in Dubai Hills Estate. 
@@ -11885,15 +11671,217 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>BAA-S-4995</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14546713.html</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="E111" s="4" t="inlineStr">
+        <is>
+          <t>Sidra Villas II</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>16800000</v>
+      </c>
+      <c r="H111" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I111" s="4" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="J111" s="4" t="inlineStr"/>
+      <c r="K111" s="4" t="inlineStr"/>
+      <c r="L111" s="5" t="inlineStr">
+        <is>
+          <t>4558</t>
+        </is>
+      </c>
+      <c r="M111" s="5" t="inlineStr">
+        <is>
+          <t>6176</t>
+        </is>
+      </c>
+      <c r="N111" s="4" t="inlineStr">
+        <is>
+          <t>Vacant/Cash Owner/Extended/Upgraded/Pool/Furnished</t>
+        </is>
+      </c>
+      <c r="O111" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="P111" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q111" s="4" t="inlineStr">
+        <is>
+          <t>Ryo Wakabayashi</t>
+        </is>
+      </c>
+      <c r="R111" s="4" t="inlineStr">
+        <is>
+          <t>Bridges and Allies Real Estate Brokers</t>
+        </is>
+      </c>
+      <c r="S111" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="T111" s="4" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nestled in the prestigious Dubai Hills Estate, this rare single-row villa is the epitome of refined living, offering a unique blend of luxury, privacy, and tranquility. Set on a 6,176.76 sqft plot with an expanded BUA of 4,558 sqft, the home is thoughtfully designed with premium finishes and an effortless indoor-outdoor flow.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Key Features:&lt;br /&gt; • Zen-inspired interiors promoting calm and comfort&lt;br /&gt; • Fully fitted modern kitchen with high-end appliances&lt;br /&gt; • Spacious living and dining areas, perfect for entertaining&lt;br /&gt; • Temperature-controlled private pool for year-round enjoyment&lt;br /&gt; • Outdoor lounge and landscaped garden ideal for social gatherings&lt;br /&gt; • Two private parking spots with additional guest parking&lt;br /&gt; • Single row with direct backside access to a walkway leading to the park&lt;br /&gt; • Service charge: 2.5-3.5 AED/- sqft, reflecting premium amenities and location&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Open House:&lt;br /&gt; • Mondays: 13:00–15:00&lt;br /&gt; • Thursdays: 10:00–12:00&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Experience unmatched serenity and elegance in one of Dubai’s most exclusive communities.&lt;/p&gt;&lt;br /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>UQP-22780</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14630885.html</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t>Sidra Villas I</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="H112" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I112" s="4" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="J112" s="4" t="inlineStr"/>
+      <c r="K112" s="4" t="inlineStr"/>
+      <c r="L112" s="5" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="M112" s="5" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="N112" s="4" t="inlineStr">
+        <is>
+          <t>Luxury 4BR plus Maid | Extended I Prime Location</t>
+        </is>
+      </c>
+      <c r="O112" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="P112" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="4" t="inlineStr">
+        <is>
+          <t>Kapil Gurbani</t>
+        </is>
+      </c>
+      <c r="R112" s="4" t="inlineStr">
+        <is>
+          <t>Unique Properties</t>
+        </is>
+      </c>
+      <c r="S112" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="T112" s="4" t="inlineStr">
+        <is>
+          <t>Unique Properties is delighted to introduce this stunning upgraded four-bedroom villa plus maids, freshly listed in the premium community of Sidra in Dubai Hills Estate. This Sidra villa offers an unparalleled blend of sophistication, comfort, and modern elegance.
+Property Details and Features:
+•‎ Type E3 
+•‎ 4 bedrooms extended by 20%
+•‎ BUA: 4,000 sq. ft.
+•‎ Plot size - 5140.31 sq. ft.
+•‎ Elevated Plot 
+•‎ Courtyard extended
+•‎ Quiet and Greenery Area
+•‎ Great Location 
+•‎ Closed Kitchen 
+•‎ Outdoor Kitchen 
+•‎ Master bedroom extended 
+•‎ Walk-in closet 
+•‎ Exquisite finishing
+•‎ Upgraded Flooring
+•‎ Viewable Upon Request
+Sidra is Dubai’s most vibrant and premium new community. Dubai Hills is strategically positioned on Al Khail Road and southeast of Downtown Dubai. The destination has an endless supply of nature trails and green spaces so you can live life in harmony with nature and world-class residential, hospitality and retail districts. The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master planned to connect you with some of the best choices in education, shopping, healthcare and sports.
+Connectivity:‎
+‎•‎ ‎29 minutes’ drive to Dubai Mall
+•‎ ‎34 minutes to Palm Jumeirah
+‎•‎ ‎32 minutes to Burj Al Arab
+‎•‎ ‎38 minutes to The Walk JBR
+‎•‎ ‎‎35 minutes to Dubai International Airport (DXB)‎
+‎•‎ ‎43 minutes to Al Maktoum International Airport
+Hurry! Properties like this don’t come on the market every day. Call our agent to find out more.
+Unique Properties is your gateway to Dubai&amp;#39;s award-winning international Real Estate. Since 2008, we&amp;#39;ve been a leading agency, serving thousands of customers from around the globe and helping them find dream homes and lucrative investments. Discover off-plan gems or luxurious residences with our expert, globally diverse team. Trust us for honest advice and exceptional service on your property journey!</t>
+        </is>
+      </c>
+    </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>LXF-S-71675</t>
+          <t>VI7750</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13798922.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14622802.html</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -11908,19 +11896,19 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Sidra Villas III</t>
+          <t>Sidra Villas II</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
-        <v>15500000</v>
+        <v>7500000</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" s="4" t="inlineStr">
         <is>
@@ -11931,31 +11919,31 @@
       <c r="K113" s="4" t="inlineStr"/>
       <c r="L113" s="5" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="M113" s="4" t="inlineStr"/>
       <c r="N113" s="4" t="inlineStr">
         <is>
-          <t>Fully Upgraded | Extended | Swimming Pool | Vacant</t>
+          <t>Well Priced | Great Location | Vacant Soon</t>
         </is>
       </c>
       <c r="O113" s="4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="P113" s="4" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="4" t="inlineStr">
         <is>
-          <t>Harrison Fry</t>
+          <t>Luqman Akhtar</t>
         </is>
       </c>
       <c r="R113" s="4" t="inlineStr">
         <is>
-          <t>Luxfolio Real Estate Brokers LLC</t>
+          <t>Irwin Real Estate L.L.C</t>
         </is>
       </c>
       <c r="S113" s="4" t="inlineStr">
@@ -11965,12 +11953,16 @@
       </c>
       <c r="T113" s="4" t="inlineStr">
         <is>
-          <t>Luxfolio are proud to sell this beautiful, fully upgraded and extended 4 bedroom villa in Sidra, Dubai Hills.
-Discover unparalleled luxury in this fully upgraded and extended 4-bedroom villa located in the prestigious Sidra community of Dubai Hills. 
-This exceptional home offers a perfect blend of modern elegance and comfort, featuring a spacious open-plan layout with high-end finishes throughout. The state-of-the-art kitchen is a chef&amp;#39;s dream, equipped with premium appliances and custom cabinetry.
- The expansive living and dining areas are ideal for entertaining, with large windows providing abundant natural light and stunning views of the landscaped garden. Each of the four bedrooms is generously sized, with the master suite offering a private retreat complete with a luxurious en-suite bathroom and walk-in closet. 
-The villa has been thoughtfully extended to include additional living space, perfect for a home office or family room. Outside, the beautifully landscaped garden offers a serene oasis, ideal for outdoor gatherings or relaxation. 
-Residents of Sidra enjoy access to world-class amenities, including a community pool, fitness center, and parks. Situated in the heart of Dubai Hills, this villa offers convenient access to top schools, shopping centers, and major roadways. Experience the ultimate in luxury living in this stunning Sidra villa</t>
+          <t>Presenting this 3-bedroom villa in the sought-after Sidra Villas, nestled within the prestigious Dubai Hills Estate. This beautifully designed residence features an expansive layout, ensuring luxury living with comfort at its core. 
+Key Highlights:
+- 3 bedrooms and 4 modern bathrooms
+- 3,100 sq.ft Built Up Area
+- Vacant Soon
+- Private outdoor space and landscaped garden
+- Exceptional community amenities including parks, walking trails, and children&amp;#39;s play areas
+This villa showcases an open-plan living area, seamlessly integrating indoor and outdoor spaces, perfect for entertaining or enjoying family time. Natural light floods the home, enhancing the premium finishes and modern design. 
+Dubai Hills Estate offers an unrivaled lifestyle with its blend of upscale living and accessibility to retail, dining, and entertainment options nearby. With its strategic location, this property is not only an ideal family home but also a fantastic investment opportunity.
+For further details or to schedule a viewing, contact Irwin Real Estate today!</t>
         </is>
       </c>
     </row>
